--- a/src/data/Project-Controller.xlsx
+++ b/src/data/Project-Controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bes/cc18/Project/Swapy02/web/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E88D6BA-B843-4045-96F1-F1280ECAE3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C4C490-13C4-994C-8932-46A8141B516D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4940" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
+    <workbookView xWindow="28800" yWindow="2100" windowWidth="23600" windowHeight="15900" activeTab="8" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="22" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assets!$A$1:$N$195</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">WBS!$A$2:$AG$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">WBS!$A$2:$AG$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24843,16 +24843,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F0E61F-A3F6-9740-95CC-82129F9B310C}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AG103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG52" sqref="AG52"/>
+      <selection pane="bottomRight" activeCell="AG54" sqref="AG54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24881,7 +24881,7 @@
       </c>
       <c r="AG1" s="20" cm="1">
         <f t="array" ref="AG1">SUM($G$3:$G$1024*$AG$3:$AG$1024)/G1</f>
-        <v>0.62240000000000018</v>
+        <v>0.63040000000000018</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -24985,7 +24985,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <f t="shared" ref="A4:A68" si="0">IF(B4=1,A3+1,A3)</f>
         <v>1</v>
@@ -25038,7 +25038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -25065,7 +25065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -25092,7 +25092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25122,7 +25122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25152,7 +25152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25182,7 +25182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25212,7 +25212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25242,7 +25242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25272,7 +25272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25302,7 +25302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25332,7 +25332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25362,7 +25362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25392,7 +25392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25422,7 +25422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25452,7 +25452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25482,7 +25482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25512,7 +25512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25542,7 +25542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25572,7 +25572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25602,7 +25602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25632,7 +25632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25662,7 +25662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25689,7 +25689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25716,7 +25716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25743,7 +25743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25773,7 +25773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25803,7 +25803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25833,7 +25833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25863,7 +25863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25893,7 +25893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25923,7 +25923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25953,7 +25953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25983,7 +25983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26013,7 +26013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26040,7 +26040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26067,7 +26067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26094,7 +26094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26121,7 +26121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26148,7 +26148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26178,7 +26178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26208,7 +26208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26238,7 +26238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26268,7 +26268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26298,7 +26298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26349,13 +26349,13 @@
         <v>1225</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>1346</v>
+        <v>1227</v>
       </c>
       <c r="AG49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26388,7 +26388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26418,7 +26418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -26448,7 +26448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -26544,7 +26544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26727,7 +26727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26757,7 +26757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26787,7 +26787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26817,7 +26817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26847,7 +26847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26877,7 +26877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26907,7 +26907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26937,7 +26937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
         <f t="shared" ref="A69:A103" si="1">IF(B69=1,A68+1,A68)</f>
         <v>7</v>
@@ -26967,7 +26967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -26997,7 +26997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27027,7 +27027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27057,7 +27057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27114,7 +27114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27141,7 +27141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27168,7 +27168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27195,7 +27195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27222,7 +27222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27249,7 +27249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27276,7 +27276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27303,7 +27303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27330,7 +27330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27357,7 +27357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27384,7 +27384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27417,7 +27417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27450,7 +27450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27483,7 +27483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27516,7 +27516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27549,7 +27549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27579,7 +27579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27609,7 +27609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27639,7 +27639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27672,7 +27672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -27864,7 +27864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -27894,7 +27894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -27985,7 +27985,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AG101" xr:uid="{63F0E61F-A3F6-9740-95CC-82129F9B310C}"/>
+  <autoFilter ref="A2:AG103" xr:uid="{63F0E61F-A3F6-9740-95CC-82129F9B310C}">
+    <filterColumn colId="32">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="H1:AF1048576">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>H1="O"</formula>

--- a/src/data/Project-Controller.xlsx
+++ b/src/data/Project-Controller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bes/cc18/Project/Swapy02/web/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C4C490-13C4-994C-8932-46A8141B516D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E5132F-2036-9540-B772-89561AC2DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="2100" windowWidth="23600" windowHeight="15900" activeTab="8" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="1375">
   <si>
     <t>user_name</t>
   </si>
@@ -4015,9 +4015,6 @@
     <t>Manage Asset</t>
   </si>
   <si>
-    <t>Show Add New Asset</t>
-  </si>
-  <si>
     <t>Show Edit Asset</t>
   </si>
   <si>
@@ -4193,6 +4190,12 @@
   </si>
   <si>
     <t>Modal isOpen</t>
+  </si>
+  <si>
+    <t>Show Create Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Ready </t>
   </si>
 </sst>
 </file>
@@ -4903,8 +4906,9 @@
   </sheetPr>
   <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4967,7 +4971,7 @@
         <v>648</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -13852,7 +13856,7 @@
   </sheetPr>
   <dimension ref="A1:E475"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
@@ -23874,7 +23878,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23905,7 +23909,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23916,7 +23920,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23927,7 +23931,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23938,7 +23942,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23949,7 +23953,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23960,7 +23964,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23971,7 +23975,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23982,7 +23986,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -23993,7 +23997,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -24004,7 +24008,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D11" t="s">
         <v>538</v>
@@ -24018,7 +24022,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D12" t="s">
         <v>539</v>
@@ -24032,7 +24036,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D13" t="s">
         <v>540</v>
@@ -24046,7 +24050,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D14" t="s">
         <v>541</v>
@@ -24060,7 +24064,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D15" t="s">
         <v>542</v>
@@ -24074,7 +24078,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D16" t="s">
         <v>537</v>
@@ -24088,7 +24092,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D17" t="s">
         <v>536</v>
@@ -24102,7 +24106,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D18" t="s">
         <v>535</v>
@@ -24116,7 +24120,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D19" t="s">
         <v>543</v>
@@ -24130,7 +24134,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D20" t="s">
         <v>544</v>
@@ -24144,7 +24148,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D21" t="s">
         <v>550</v>
@@ -24158,7 +24162,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D22" t="s">
         <v>551</v>
@@ -24172,7 +24176,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D23" t="s">
         <v>552</v>
@@ -24186,7 +24190,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D24" t="s">
         <v>559</v>
@@ -24200,7 +24204,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D25" t="s">
         <v>560</v>
@@ -24843,16 +24847,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F0E61F-A3F6-9740-95CC-82129F9B310C}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AG103"/>
+  <dimension ref="A1:AG105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG54" sqref="AG54"/>
+      <selection pane="bottomRight" activeCell="AG106" sqref="AG106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24870,18 +24874,18 @@
   <sheetData>
     <row r="1" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="27" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G1" s="26">
         <f>SUM($G$3:$G$1024)</f>
-        <v>31.250000000000007</v>
+        <v>31.45000000000001</v>
       </c>
       <c r="AF1" s="19" t="s">
         <v>1230</v>
       </c>
       <c r="AG1" s="20" cm="1">
         <f t="array" ref="AG1">SUM($G$3:$G$1024*$AG$3:$AG$1024)/G1</f>
-        <v>0.63040000000000018</v>
+        <v>0.62639109697933237</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -24904,7 +24908,7 @@
         <v>1283</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H2" s="24">
         <v>45565</v>
@@ -24985,7 +24989,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -25011,7 +25015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <f t="shared" ref="A4:A68" si="0">IF(B4=1,A3+1,A3)</f>
         <v>1</v>
@@ -25038,7 +25042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -25065,7 +25069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -25077,10 +25081,10 @@
         <v>1304</v>
       </c>
       <c r="E6" s="21" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>1336</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>1337</v>
       </c>
       <c r="G6" s="18">
         <v>0.25</v>
@@ -25092,7 +25096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25122,7 +25126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25152,7 +25156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25182,7 +25186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25212,7 +25216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25242,7 +25246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25272,7 +25276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25302,7 +25306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25332,7 +25336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25362,7 +25366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25392,7 +25396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25422,7 +25426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25452,7 +25456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -25482,7 +25486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25512,7 +25516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25542,7 +25546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25572,7 +25576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25602,7 +25606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25632,7 +25636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25662,7 +25666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25689,7 +25693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25716,7 +25720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -25743,7 +25747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25773,7 +25777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25803,7 +25807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25833,7 +25837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25863,7 +25867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25893,7 +25897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25923,7 +25927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25953,7 +25957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25983,7 +25987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26013,7 +26017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26040,7 +26044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26067,7 +26071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26094,7 +26098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26121,7 +26125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26148,7 +26152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26178,7 +26182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26208,7 +26212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26238,7 +26242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26268,7 +26272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26298,7 +26302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26340,7 +26344,7 @@
         <v>1220</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G49" s="18">
         <v>0.25</v>
@@ -26355,7 +26359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26388,7 +26392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26403,7 +26407,7 @@
         <v>1220</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G51" s="18">
         <v>0.25</v>
@@ -26418,7 +26422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -26448,7 +26452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -26496,7 +26500,7 @@
         <v>1221</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>1314</v>
+        <v>1373</v>
       </c>
       <c r="G54" s="18">
         <v>0.1</v>
@@ -26505,7 +26509,7 @@
         <v>1225</v>
       </c>
       <c r="S54" s="15" t="s">
-        <v>1346</v>
+        <v>1227</v>
       </c>
       <c r="AG54" t="b">
         <v>0</v>
@@ -26529,7 +26533,7 @@
         <v>1221</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G55" s="18">
         <v>0.1</v>
@@ -26538,13 +26542,13 @@
         <v>1225</v>
       </c>
       <c r="S55" s="15" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -26601,7 +26605,7 @@
         <v>1225</v>
       </c>
       <c r="S57" s="15" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="AG57" t="b">
         <v>0</v>
@@ -26631,7 +26635,7 @@
         <v>1225</v>
       </c>
       <c r="S58" s="15" t="s">
-        <v>1346</v>
+        <v>1227</v>
       </c>
       <c r="AG58" t="b">
         <v>0</v>
@@ -26661,7 +26665,7 @@
         <v>1225</v>
       </c>
       <c r="S59" s="15" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="AG59" t="b">
         <v>0</v>
@@ -26691,13 +26695,13 @@
         <v>1225</v>
       </c>
       <c r="S60" s="15" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26706,7 +26710,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>1265</v>
@@ -26727,7 +26731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26736,7 +26740,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>1265</v>
@@ -26757,7 +26761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26766,7 +26770,7 @@
         <v>3</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>1265</v>
@@ -26787,7 +26791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26796,7 +26800,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>1265</v>
@@ -26817,7 +26821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26826,7 +26830,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>1265</v>
@@ -26847,7 +26851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26856,7 +26860,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>1265</v>
@@ -26877,7 +26881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26886,7 +26890,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>1265</v>
@@ -26907,7 +26911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26916,7 +26920,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>1270</v>
@@ -26937,16 +26941,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
-        <f t="shared" ref="A69:A103" si="1">IF(B69=1,A68+1,A68)</f>
+        <f t="shared" ref="A69:A105" si="1">IF(B69=1,A68+1,A68)</f>
         <v>7</v>
       </c>
       <c r="B69" s="15">
         <v>9</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>1270</v>
@@ -26967,7 +26971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -26976,7 +26980,7 @@
         <v>10</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>1270</v>
@@ -26997,7 +27001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27006,7 +27010,7 @@
         <v>11</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>1270</v>
@@ -27027,7 +27031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27036,7 +27040,7 @@
         <v>12</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>1270</v>
@@ -27057,7 +27061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27066,7 +27070,7 @@
         <v>13</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>1270</v>
@@ -27087,7 +27091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27096,13 +27100,13 @@
         <v>14</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E74" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G74" s="18">
         <v>0.25</v>
@@ -27114,7 +27118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27123,13 +27127,13 @@
         <v>15</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G75" s="18">
         <v>0.25</v>
@@ -27141,7 +27145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27150,13 +27154,13 @@
         <v>16</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G76" s="18">
         <v>0.25</v>
@@ -27168,7 +27172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27177,13 +27181,13 @@
         <v>17</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G77" s="18">
         <v>0.5</v>
@@ -27195,7 +27199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27204,13 +27208,13 @@
         <v>18</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G78" s="18">
         <v>0.5</v>
@@ -27222,7 +27226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27231,13 +27235,13 @@
         <v>19</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G79" s="18">
         <v>0.5</v>
@@ -27249,7 +27253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27258,13 +27262,13 @@
         <v>20</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E80" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G80" s="18">
         <v>1</v>
@@ -27276,7 +27280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27285,7 +27289,7 @@
         <v>21</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>1220</v>
@@ -27303,7 +27307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27312,7 +27316,7 @@
         <v>22</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>1220</v>
@@ -27330,7 +27334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27339,13 +27343,13 @@
         <v>23</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E83" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G83" s="18">
         <v>0.25</v>
@@ -27357,7 +27361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27366,7 +27370,7 @@
         <v>24</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E84" s="21" t="s">
         <v>1220</v>
@@ -27384,7 +27388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27393,7 +27397,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>1265</v>
@@ -27417,7 +27421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27426,7 +27430,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>1265</v>
@@ -27450,7 +27454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27459,7 +27463,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>1265</v>
@@ -27483,7 +27487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27492,7 +27496,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>1270</v>
@@ -27516,7 +27520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27525,7 +27529,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>1270</v>
@@ -27534,7 +27538,7 @@
         <v>1271</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G89" s="18">
         <v>0.1</v>
@@ -27549,7 +27553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27558,13 +27562,13 @@
         <v>6</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E90" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G90" s="18">
         <v>0.1</v>
@@ -27579,7 +27583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27588,13 +27592,13 @@
         <v>7</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E91" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G91" s="18">
         <v>0.1</v>
@@ -27609,7 +27613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27618,13 +27622,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E92" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G92" s="18">
         <v>0.1</v>
@@ -27639,7 +27643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27648,13 +27652,13 @@
         <v>9</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G93" s="18">
         <v>0.1</v>
@@ -27672,7 +27676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -27681,13 +27685,13 @@
         <v>10</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>1220</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G94" s="18">
         <v>0.1</v>
@@ -27714,13 +27718,13 @@
         <v>1</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G95" s="18">
         <v>4</v>
@@ -27750,13 +27754,13 @@
         <v>1</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G96" s="18">
         <v>3</v>
@@ -27783,7 +27787,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>1265</v>
@@ -27792,7 +27796,7 @@
         <v>1220</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G97" s="18">
         <v>0.5</v>
@@ -27813,7 +27817,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>1265</v>
@@ -27822,7 +27826,7 @@
         <v>1220</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G98" s="18">
         <v>0.5</v>
@@ -27834,7 +27838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -27843,7 +27847,7 @@
         <v>3</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>1265</v>
@@ -27852,7 +27856,7 @@
         <v>1220</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G99" s="18">
         <v>0.25</v>
@@ -27864,7 +27868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -27873,7 +27877,7 @@
         <v>4</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>1265</v>
@@ -27882,7 +27886,7 @@
         <v>1220</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G100" s="18">
         <v>0.1</v>
@@ -27894,7 +27898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -27903,7 +27907,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D101" s="15" t="s">
         <v>1265</v>
@@ -27912,7 +27916,7 @@
         <v>1221</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G101" s="18">
         <v>0.1</v>
@@ -27933,7 +27937,7 @@
         <v>6</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D102" s="15" t="s">
         <v>1265</v>
@@ -27942,7 +27946,7 @@
         <v>1220</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G102" s="18">
         <v>1</v>
@@ -27963,7 +27967,7 @@
         <v>7</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>1265</v>
@@ -27972,7 +27976,7 @@
         <v>1220</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G103" s="18">
         <v>1</v>
@@ -27984,14 +27988,68 @@
         <v>0</v>
       </c>
     </row>
+    <row r="104" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B104" s="15">
+        <v>8</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G104" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="S104" s="15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AG104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B105" s="15">
+        <v>9</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G105" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="S105" s="15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AG105" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AG103" xr:uid="{63F0E61F-A3F6-9740-95CC-82129F9B310C}">
-    <filterColumn colId="32">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AG103" xr:uid="{63F0E61F-A3F6-9740-95CC-82129F9B310C}"/>
   <conditionalFormatting sqref="H1:AF1048576">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>H1="O"</formula>

--- a/src/data/Project-Controller.xlsx
+++ b/src/data/Project-Controller.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bes/cc18/Project/Swapy02/web/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E5132F-2036-9540-B772-89561AC2DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7B0131-9066-B24E-BE33-CAE434F882B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="2100" windowWidth="23600" windowHeight="15900" activeTab="8" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Assets!$A$1:$N$195</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">WBS!$A$2:$AG$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">WBS!$A$2:$AG$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="1378">
   <si>
     <t>user_name</t>
   </si>
@@ -4159,9 +4159,6 @@
     <t>BROKEN</t>
   </si>
   <si>
-    <t>FOR PARTS</t>
-  </si>
-  <si>
     <t>READY</t>
   </si>
   <si>
@@ -4196,6 +4193,18 @@
   </si>
   <si>
     <t xml:space="preserve">Asset Ready </t>
+  </si>
+  <si>
+    <t>PARTS</t>
+  </si>
+  <si>
+    <t>User not ready can't accept</t>
+  </si>
+  <si>
+    <t>Show Delete Asset</t>
+  </si>
+  <si>
+    <t>Validate Asset Ready when edit Asset</t>
   </si>
 </sst>
 </file>
@@ -4384,7 +4393,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -4415,140 +4424,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -4906,7 +4781,7 @@
   </sheetPr>
   <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -23878,7 +23753,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24078,7 +23953,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>1362</v>
+        <v>1374</v>
       </c>
       <c r="D16" t="s">
         <v>537</v>
@@ -24092,7 +23967,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D17" t="s">
         <v>536</v>
@@ -24106,7 +23981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D18" t="s">
         <v>535</v>
@@ -24120,7 +23995,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D19" t="s">
         <v>543</v>
@@ -24134,7 +24009,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D20" t="s">
         <v>544</v>
@@ -24148,7 +24023,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D21" t="s">
         <v>550</v>
@@ -24162,7 +24037,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D22" t="s">
         <v>551</v>
@@ -24176,7 +24051,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D23" t="s">
         <v>552</v>
@@ -24190,7 +24065,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D24" t="s">
         <v>559</v>
@@ -24204,7 +24079,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D25" t="s">
         <v>560</v>
@@ -24850,13 +24725,13 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AG105"/>
+  <dimension ref="A1:AG108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG106" sqref="AG106"/>
+      <selection pane="bottomRight" activeCell="AE96" sqref="AE96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24877,15 +24752,15 @@
         <v>1347</v>
       </c>
       <c r="G1" s="26">
-        <f>SUM($G$3:$G$1024)</f>
-        <v>31.45000000000001</v>
+        <f>SUM($G$3:$G$1025)</f>
+        <v>24.750000000000014</v>
       </c>
       <c r="AF1" s="19" t="s">
         <v>1230</v>
       </c>
       <c r="AG1" s="20" cm="1">
-        <f t="array" ref="AG1">SUM($G$3:$G$1024*$AG$3:$AG$1024)/G1</f>
-        <v>0.62639109697933237</v>
+        <f t="array" ref="AG1">SUM($G$3:$G$1025*$AG$3:$AG$1025)/G1</f>
+        <v>0.87070707070707065</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="16" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -25017,7 +24892,7 @@
     </row>
     <row r="4" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
-        <f t="shared" ref="A4:A68" si="0">IF(B4=1,A3+1,A3)</f>
+        <f t="shared" ref="A4:A69" si="0">IF(B4=1,A3+1,A3)</f>
         <v>1</v>
       </c>
       <c r="B4" s="15">
@@ -26500,7 +26375,7 @@
         <v>1221</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G54" s="18">
         <v>0.1</v>
@@ -26512,7 +26387,7 @@
         <v>1227</v>
       </c>
       <c r="AG54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -26541,11 +26416,11 @@
       <c r="O55" s="15" t="s">
         <v>1225</v>
       </c>
-      <c r="S55" s="15" t="s">
-        <v>1345</v>
+      <c r="U55" s="15" t="s">
+        <v>1227</v>
       </c>
       <c r="AG55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -26560,19 +26435,22 @@
         <v>1313</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>1259</v>
+        <v>1221</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>1290</v>
+        <v>1376</v>
       </c>
       <c r="G56" s="18">
         <v>0.1</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>1226</v>
+        <v>1225</v>
+      </c>
+      <c r="W56" s="15" t="s">
+        <v>1227</v>
       </c>
       <c r="AG56" t="b">
         <v>1</v>
@@ -26593,22 +26471,19 @@
         <v>1270</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>1272</v>
+        <v>1290</v>
       </c>
       <c r="G57" s="18">
         <v>0.1</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>1225</v>
-      </c>
-      <c r="S57" s="15" t="s">
-        <v>1345</v>
+        <v>1226</v>
       </c>
       <c r="AG57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -26622,23 +26497,26 @@
       <c r="C58" s="14" t="s">
         <v>1313</v>
       </c>
+      <c r="D58" s="15" t="s">
+        <v>1270</v>
+      </c>
       <c r="E58" s="21" t="s">
-        <v>1220</v>
+        <v>1271</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>1223</v>
+        <v>1272</v>
       </c>
       <c r="G58" s="18">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O58" s="15" t="s">
         <v>1225</v>
       </c>
-      <c r="S58" s="15" t="s">
+      <c r="W58" s="15" t="s">
         <v>1227</v>
       </c>
       <c r="AG58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -26656,7 +26534,7 @@
         <v>1220</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G59" s="18">
         <v>0.5</v>
@@ -26665,10 +26543,10 @@
         <v>1225</v>
       </c>
       <c r="S59" s="15" t="s">
-        <v>1345</v>
+        <v>1227</v>
       </c>
       <c r="AG59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -26686,46 +26564,46 @@
         <v>1220</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>662</v>
+        <v>1224</v>
       </c>
       <c r="G60" s="18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O60" s="15" t="s">
         <v>1225</v>
       </c>
-      <c r="S60" s="15" t="s">
-        <v>1345</v>
+      <c r="W60" s="15" t="s">
+        <v>1227</v>
       </c>
       <c r="AG60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>1265</v>
+        <v>1313</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>1258</v>
+        <v>1220</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>1254</v>
+        <v>662</v>
       </c>
       <c r="G61" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="P61" s="15" t="s">
-        <v>1226</v>
+        <v>0.25</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="W61" s="15" t="s">
+        <v>1227</v>
       </c>
       <c r="AG61" t="b">
         <v>1</v>
@@ -26737,7 +26615,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>1315</v>
@@ -26746,13 +26624,13 @@
         <v>1265</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>1221</v>
+        <v>1258</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>1239</v>
+        <v>1254</v>
       </c>
       <c r="G62" s="18">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="P62" s="15" t="s">
         <v>1226</v>
@@ -26767,7 +26645,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>1315</v>
@@ -26779,7 +26657,7 @@
         <v>1221</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G63" s="18">
         <v>0.25</v>
@@ -26797,7 +26675,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>1315</v>
@@ -26809,7 +26687,7 @@
         <v>1221</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G64" s="18">
         <v>0.25</v>
@@ -26827,7 +26705,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>1315</v>
@@ -26839,7 +26717,7 @@
         <v>1221</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="G65" s="18">
         <v>0.25</v>
@@ -26857,7 +26735,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>1315</v>
@@ -26869,12 +26747,12 @@
         <v>1221</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="G66" s="18">
         <v>0.25</v>
       </c>
-      <c r="Q66" s="15" t="s">
+      <c r="P66" s="15" t="s">
         <v>1226</v>
       </c>
       <c r="AG66" t="b">
@@ -26887,7 +26765,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>1315</v>
@@ -26896,10 +26774,10 @@
         <v>1265</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>1261</v>
+        <v>1221</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>1263</v>
+        <v>1243</v>
       </c>
       <c r="G67" s="18">
         <v>0.25</v>
@@ -26917,22 +26795,22 @@
         <v>7</v>
       </c>
       <c r="B68" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>1315</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="G68" s="18">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q68" s="15" t="s">
         <v>1226</v>
@@ -26943,11 +26821,11 @@
     </row>
     <row r="69" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
-        <f t="shared" ref="A69:A105" si="1">IF(B69=1,A68+1,A68)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B69" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>1315</v>
@@ -26959,7 +26837,7 @@
         <v>1271</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G69" s="18">
         <v>0.1</v>
@@ -26973,11 +26851,11 @@
     </row>
     <row r="70" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A70:A108" si="1">IF(B70=1,A69+1,A69)</f>
         <v>7</v>
       </c>
       <c r="B70" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>1315</v>
@@ -26989,10 +26867,10 @@
         <v>1271</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="G70" s="18">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Q70" s="15" t="s">
         <v>1226</v>
@@ -27007,7 +26885,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>1315</v>
@@ -27016,10 +26894,10 @@
         <v>1270</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>1292</v>
+        <v>1274</v>
       </c>
       <c r="G71" s="18">
         <v>0.25</v>
@@ -27037,7 +26915,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>1315</v>
@@ -27049,7 +26927,7 @@
         <v>1259</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G72" s="18">
         <v>0.25</v>
@@ -27067,7 +26945,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>1315</v>
@@ -27079,7 +26957,7 @@
         <v>1259</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G73" s="18">
         <v>0.25</v>
@@ -27097,16 +26975,19 @@
         <v>7</v>
       </c>
       <c r="B74" s="15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>1315</v>
       </c>
+      <c r="D74" s="15" t="s">
+        <v>1270</v>
+      </c>
       <c r="E74" s="21" t="s">
-        <v>1220</v>
+        <v>1259</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>1316</v>
+        <v>1294</v>
       </c>
       <c r="G74" s="18">
         <v>0.25</v>
@@ -27124,7 +27005,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>1315</v>
@@ -27133,7 +27014,7 @@
         <v>1220</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G75" s="18">
         <v>0.25</v>
@@ -27151,7 +27032,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>1315</v>
@@ -27160,7 +27041,7 @@
         <v>1220</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G76" s="18">
         <v>0.25</v>
@@ -27178,7 +27059,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>1315</v>
@@ -27187,10 +27068,10 @@
         <v>1220</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="G77" s="18">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q77" s="15" t="s">
         <v>1226</v>
@@ -27205,7 +27086,7 @@
         <v>7</v>
       </c>
       <c r="B78" s="15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>1315</v>
@@ -27214,7 +27095,7 @@
         <v>1220</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="G78" s="18">
         <v>0.5</v>
@@ -27232,7 +27113,7 @@
         <v>7</v>
       </c>
       <c r="B79" s="15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>1315</v>
@@ -27241,7 +27122,7 @@
         <v>1220</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G79" s="18">
         <v>0.5</v>
@@ -27259,7 +27140,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>1315</v>
@@ -27268,10 +27149,10 @@
         <v>1220</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G80" s="18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q80" s="15" t="s">
         <v>1226</v>
@@ -27286,7 +27167,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>1315</v>
@@ -27295,10 +27176,10 @@
         <v>1220</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>1216</v>
+        <v>1322</v>
       </c>
       <c r="G81" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="15" t="s">
         <v>1226</v>
@@ -27313,7 +27194,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>1315</v>
@@ -27322,10 +27203,10 @@
         <v>1220</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G82" s="18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q82" s="15" t="s">
         <v>1226</v>
@@ -27340,7 +27221,7 @@
         <v>7</v>
       </c>
       <c r="B83" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>1315</v>
@@ -27349,10 +27230,10 @@
         <v>1220</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>1323</v>
+        <v>1218</v>
       </c>
       <c r="G83" s="18">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="15" t="s">
         <v>1226</v>
@@ -27367,7 +27248,7 @@
         <v>7</v>
       </c>
       <c r="B84" s="15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>1315</v>
@@ -27376,7 +27257,7 @@
         <v>1220</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>1217</v>
+        <v>1323</v>
       </c>
       <c r="G84" s="18">
         <v>0.25</v>
@@ -27391,31 +27272,25 @@
     <row r="85" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" s="15">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>1265</v>
+        <v>1315</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>1258</v>
+        <v>1220</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>1256</v>
+        <v>1217</v>
       </c>
       <c r="G85" s="18">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Q85" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="R85" s="15" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="AG85" t="b">
         <v>1</v>
@@ -27427,7 +27302,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>1332</v>
@@ -27436,10 +27311,10 @@
         <v>1265</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>1221</v>
+        <v>1258</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>1242</v>
+        <v>1256</v>
       </c>
       <c r="G86" s="18">
         <v>0.1</v>
@@ -27460,7 +27335,7 @@
         <v>8</v>
       </c>
       <c r="B87" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>1332</v>
@@ -27472,7 +27347,7 @@
         <v>1221</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="G87" s="18">
         <v>0.1</v>
@@ -27493,19 +27368,19 @@
         <v>8</v>
       </c>
       <c r="B88" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>1332</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>1259</v>
+        <v>1221</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>1296</v>
+        <v>1249</v>
       </c>
       <c r="G88" s="18">
         <v>0.1</v>
@@ -27526,7 +27401,7 @@
         <v>8</v>
       </c>
       <c r="B89" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>1332</v>
@@ -27535,10 +27410,10 @@
         <v>1270</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>1326</v>
+        <v>1296</v>
       </c>
       <c r="G89" s="18">
         <v>0.1</v>
@@ -27559,16 +27434,19 @@
         <v>8</v>
       </c>
       <c r="B90" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>1332</v>
       </c>
+      <c r="D90" s="15" t="s">
+        <v>1270</v>
+      </c>
       <c r="E90" s="21" t="s">
-        <v>1220</v>
+        <v>1271</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G90" s="18">
         <v>0.1</v>
@@ -27589,7 +27467,7 @@
         <v>8</v>
       </c>
       <c r="B91" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>1332</v>
@@ -27598,7 +27476,7 @@
         <v>1220</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G91" s="18">
         <v>0.1</v>
@@ -27619,7 +27497,7 @@
         <v>8</v>
       </c>
       <c r="B92" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>1332</v>
@@ -27628,7 +27506,7 @@
         <v>1220</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G92" s="18">
         <v>0.1</v>
@@ -27649,7 +27527,7 @@
         <v>8</v>
       </c>
       <c r="B93" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>1332</v>
@@ -27658,7 +27536,7 @@
         <v>1220</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G93" s="18">
         <v>0.1</v>
@@ -27667,9 +27545,6 @@
         <v>1227</v>
       </c>
       <c r="R93" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="S93" s="15" t="s">
         <v>1225</v>
       </c>
       <c r="AG93" t="b">
@@ -27682,7 +27557,7 @@
         <v>8</v>
       </c>
       <c r="B94" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>1332</v>
@@ -27691,7 +27566,7 @@
         <v>1220</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G94" s="18">
         <v>0.1</v>
@@ -27712,67 +27587,64 @@
     <row r="95" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>1334</v>
+        <v>1220</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="G95" s="18">
-        <v>4</v>
-      </c>
-      <c r="W95" s="15" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="Q95" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="R95" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="S95" s="15" t="s">
         <v>1225</v>
       </c>
-      <c r="X95" s="15" t="s">
-        <v>1225</v>
-      </c>
-      <c r="Y95" s="15" t="s">
-        <v>1225</v>
-      </c>
-      <c r="Z95" s="15" t="s">
-        <v>1225</v>
-      </c>
       <c r="AG95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96" s="15">
         <v>1</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G96" s="18">
-        <v>3</v>
-      </c>
-      <c r="AC96" s="15" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AD96" s="15" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AE96" s="15" t="s">
-        <v>1225</v>
+        <v>1334</v>
+      </c>
+      <c r="W96" s="15" t="s">
+        <v>1345</v>
+      </c>
+      <c r="X96" s="15" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Y96" s="15" t="s">
+        <v>1345</v>
+      </c>
+      <c r="Z96" s="15" t="s">
+        <v>1345</v>
       </c>
       <c r="AG96" t="b">
         <v>0</v>
@@ -27781,28 +27653,28 @@
     <row r="97" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" s="15">
         <v>1</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>1265</v>
+        <v>1337</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>1220</v>
+        <v>1337</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G97" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="V97" s="15" t="s">
-        <v>1225</v>
+        <v>1337</v>
+      </c>
+      <c r="AC97" s="15" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AD97" s="15" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AE97" s="15" t="s">
+        <v>1345</v>
       </c>
       <c r="AG97" t="b">
         <v>0</v>
@@ -27814,7 +27686,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>1340</v>
@@ -27826,7 +27698,7 @@
         <v>1220</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G98" s="18">
         <v>0.5</v>
@@ -27844,7 +27716,7 @@
         <v>11</v>
       </c>
       <c r="B99" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>1340</v>
@@ -27856,16 +27728,16 @@
         <v>1220</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="G99" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="R99" s="15" t="s">
-        <v>1227</v>
+        <v>0.5</v>
+      </c>
+      <c r="V99" s="15" t="s">
+        <v>1225</v>
       </c>
       <c r="AG99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -27874,7 +27746,7 @@
         <v>11</v>
       </c>
       <c r="B100" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>1340</v>
@@ -27886,10 +27758,10 @@
         <v>1220</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G100" s="18">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="R100" s="15" t="s">
         <v>1227</v>
@@ -27904,7 +27776,7 @@
         <v>11</v>
       </c>
       <c r="B101" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>1340</v>
@@ -27913,10 +27785,10 @@
         <v>1265</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G101" s="18">
         <v>0.1</v>
@@ -27934,7 +27806,7 @@
         <v>11</v>
       </c>
       <c r="B102" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>1340</v>
@@ -27943,19 +27815,19 @@
         <v>1265</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G102" s="18">
-        <v>1</v>
-      </c>
-      <c r="W102" s="15" t="s">
-        <v>1225</v>
+        <v>0.1</v>
+      </c>
+      <c r="R102" s="15" t="s">
+        <v>1227</v>
       </c>
       <c r="AG102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -27964,7 +27836,7 @@
         <v>11</v>
       </c>
       <c r="B103" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>1340</v>
@@ -27976,12 +27848,12 @@
         <v>1220</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>1372</v>
+        <v>1346</v>
       </c>
       <c r="G103" s="18">
         <v>1</v>
       </c>
-      <c r="X103" s="15" t="s">
+      <c r="W103" s="15" t="s">
         <v>1225</v>
       </c>
       <c r="AG103" t="b">
@@ -27994,7 +27866,7 @@
         <v>11</v>
       </c>
       <c r="B104" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>1340</v>
@@ -28006,12 +27878,12 @@
         <v>1220</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="G104" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="S104" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X104" s="15" t="s">
         <v>1225</v>
       </c>
       <c r="AG104" t="b">
@@ -28024,19 +27896,19 @@
         <v>11</v>
       </c>
       <c r="B105" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>1340</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>1271</v>
+        <v>1220</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G105" s="18">
         <v>0.1</v>
@@ -28044,12 +27916,108 @@
       <c r="S105" s="15" t="s">
         <v>1225</v>
       </c>
+      <c r="T105" s="15" t="s">
+        <v>1227</v>
+      </c>
       <c r="AG105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B106" s="15">
+        <v>9</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G106" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="S106" s="15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="T106" s="15" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AG106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B107" s="15">
+        <v>10</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>1375</v>
+      </c>
+      <c r="G107" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="W107" s="15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AG107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B108" s="15">
+        <v>11</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E108" s="21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G108" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="X108" s="15" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AG108" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AG103" xr:uid="{63F0E61F-A3F6-9740-95CC-82129F9B310C}"/>
+  <autoFilter ref="A2:AG104" xr:uid="{63F0E61F-A3F6-9740-95CC-82129F9B310C}"/>
   <conditionalFormatting sqref="H1:AF1048576">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>H1="O"</formula>

--- a/src/data/Project-Controller.xlsx
+++ b/src/data/Project-Controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bes/cc18/Project/Swapy02/web/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BAFBB9-998F-4F4C-856D-1898D6D9B6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A88E7A-5187-1249-A712-3754DC86281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2100" windowWidth="23600" windowHeight="15900" activeTab="8" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="8" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="22" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="1421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="1422">
   <si>
     <t>user_name</t>
   </si>
@@ -4336,6 +4336,9 @@
   </si>
   <si>
     <t>Move to new Cloudinary</t>
+  </si>
+  <si>
+    <t>Search result paging</t>
   </si>
 </sst>
 </file>
@@ -4901,9 +4904,9 @@
   </sheetPr>
   <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J133" sqref="J133"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4912,7 +4915,7 @@
     <col min="2" max="3" width="10.83203125" style="7"/>
     <col min="4" max="4" width="10.83203125" style="6"/>
     <col min="5" max="5" width="25.83203125" customWidth="1"/>
-    <col min="9" max="9" width="83.83203125" customWidth="1"/>
+    <col min="9" max="9" width="62.5" customWidth="1"/>
     <col min="10" max="10" width="50.5" customWidth="1"/>
     <col min="12" max="15" width="10.83203125" style="4"/>
   </cols>
@@ -14419,7 +14422,7 @@
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="3" width="10.83203125" style="7"/>
     <col min="4" max="4" width="8.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="117" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -24778,7 +24781,7 @@
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25760,16 +25763,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F0E61F-A3F6-9740-95CC-82129F9B310C}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AG110"/>
+  <dimension ref="A1:AG111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="L96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG103" sqref="AG103"/>
+      <selection pane="bottomRight" activeCell="AG113" sqref="AG113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25791,14 +25794,14 @@
       </c>
       <c r="G1" s="24">
         <f>SUM($G$3:$G$1025)</f>
-        <v>25.650000000000013</v>
+        <v>26.650000000000013</v>
       </c>
       <c r="AF1" s="17" t="s">
         <v>1188</v>
       </c>
       <c r="AG1" s="18" cm="1">
         <f t="array" ref="AG1">SUM($G$3:$G$1025*$AG$3:$AG$1025)/G1</f>
-        <v>0.90253411306042886</v>
+        <v>0.98123827392120078</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="14" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -25902,7 +25905,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -25928,7 +25931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f t="shared" ref="A4:A69" si="0">IF(B4=1,A3+1,A3)</f>
         <v>1</v>
@@ -25955,7 +25958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -25982,7 +25985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -26009,7 +26012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26039,7 +26042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26069,7 +26072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26099,7 +26102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26129,7 +26132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26159,7 +26162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26189,7 +26192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26219,7 +26222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26249,7 +26252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26279,7 +26282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26309,7 +26312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26339,7 +26342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26369,7 +26372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -26399,7 +26402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -26429,7 +26432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -26459,7 +26462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -26489,7 +26492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -26519,7 +26522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -26549,7 +26552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -26579,7 +26582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -26606,7 +26609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -26633,7 +26636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -26660,7 +26663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26690,7 +26693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26720,7 +26723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26750,7 +26753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26780,7 +26783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26810,7 +26813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26840,7 +26843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26870,7 +26873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26900,7 +26903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26930,7 +26933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26957,7 +26960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26984,7 +26987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -27011,7 +27014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -27038,7 +27041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -27065,7 +27068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -27095,7 +27098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -27125,7 +27128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -27155,7 +27158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -27185,7 +27188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -27215,7 +27218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -27242,7 +27245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -27272,7 +27275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -27305,7 +27308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -27335,7 +27338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27365,7 +27368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27395,7 +27398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27428,7 +27431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27461,7 +27464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27494,7 +27497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27524,7 +27527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27557,7 +27560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27587,7 +27590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27617,7 +27620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -27647,7 +27650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -27677,7 +27680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -27707,7 +27710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -27737,7 +27740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -27767,7 +27770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -27797,7 +27800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -27827,7 +27830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -27857,7 +27860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -27887,9 +27890,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
-        <f t="shared" ref="A70:A110" si="1">IF(B70=1,A69+1,A69)</f>
+        <f t="shared" ref="A70:A111" si="1">IF(B70=1,A69+1,A69)</f>
         <v>7</v>
       </c>
       <c r="B70" s="13">
@@ -27917,7 +27920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27947,7 +27950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -27977,7 +27980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28007,7 +28010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28037,7 +28040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28064,7 +28067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28091,7 +28094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28118,7 +28121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28145,7 +28148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28172,7 +28175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28199,7 +28202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28226,7 +28229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28253,7 +28256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28280,7 +28283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28307,7 +28310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -28334,7 +28337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -28367,7 +28370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -28400,7 +28403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -28433,7 +28436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -28466,7 +28469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -28499,7 +28502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -28529,7 +28532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -28559,7 +28562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -28589,7 +28592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -28622,7 +28625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -28718,7 +28721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -28784,7 +28787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -28814,7 +28817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -28844,7 +28847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -28900,8 +28903,11 @@
       <c r="W103" s="13" t="s">
         <v>1183</v>
       </c>
+      <c r="Y103" s="13" t="s">
+        <v>1185</v>
+      </c>
       <c r="AG103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -28930,11 +28936,14 @@
       <c r="X104" s="13" t="s">
         <v>1183</v>
       </c>
+      <c r="Y104" s="13" t="s">
+        <v>1185</v>
+      </c>
       <c r="AG104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -28967,7 +28976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -29000,7 +29009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -29033,7 +29042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -29066,7 +29075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -29126,14 +29135,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="111" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B111" s="13">
+        <v>14</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G111" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y111" s="13" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AG111" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AG110" xr:uid="{63F0E61F-A3F6-9740-95CC-82129F9B310C}">
-    <filterColumn colId="32">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AG110" xr:uid="{63F0E61F-A3F6-9740-95CC-82129F9B310C}"/>
   <conditionalFormatting sqref="H1:AF1048576">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>H1="O"</formula>

--- a/src/data/Project-Controller.xlsx
+++ b/src/data/Project-Controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bes/cc18/Project/Swapy02/web/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8345ED-5150-2446-B7E2-7D94CB5A5625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC02F2-2D65-1942-A826-633DF50472A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="9" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="8" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="22" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="1902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="1902">
   <si>
     <t>user_name</t>
   </si>
@@ -3898,9 +3898,6 @@
     <t>Documents</t>
   </si>
   <si>
-    <t>Buffer</t>
-  </si>
-  <si>
     <t>Offer count</t>
   </si>
   <si>
@@ -3920,9 +3917,6 @@
   </si>
   <si>
     <t>Show Change Password</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>Show Message every event</t>
@@ -5780,6 +5774,12 @@
   </si>
   <si>
     <t>The Garmin Forerunner 265 is a premium GPS smartwatch tailored for runners and fitness enthusiasts. It features a vibrant AMOLED touchscreen display and advanced training tools like heart rate monitoring, VO2 max, and recovery insights. The Forerunner 265 offers built-in GPS for accurate tracking of outdoor activities, including running, cycling, and swimming. It also supports customizable workouts and adaptive training plans. Smart notifications and music controls enhance convenience, while the battery life lasts up to 13 days in smartwatch mode. With multi-band GNSS and safety features like incident detection, it's designed for performance and well-being, both on and off the track.</t>
+  </si>
+  <si>
+    <t>Gid on search result</t>
+  </si>
+  <si>
+    <t>Present</t>
   </si>
 </sst>
 </file>
@@ -6417,7 +6417,7 @@
         <v>642</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -6452,7 +6452,7 @@
         <v>677</v>
       </c>
       <c r="K2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>678</v>
       </c>
       <c r="K3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L3" s="4">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>679</v>
       </c>
       <c r="K4" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>680</v>
       </c>
       <c r="K5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -6684,7 +6684,7 @@
         <v>681</v>
       </c>
       <c r="K6" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>682</v>
       </c>
       <c r="K7" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -6800,7 +6800,7 @@
         <v>685</v>
       </c>
       <c r="K8" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>688</v>
       </c>
       <c r="K9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -6916,7 +6916,7 @@
         <v>691</v>
       </c>
       <c r="K10" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L10" s="4">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>694</v>
       </c>
       <c r="K11" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L11" s="4">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>697</v>
       </c>
       <c r="K12" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L12" s="4">
         <v>0</v>
@@ -7090,7 +7090,7 @@
         <v>700</v>
       </c>
       <c r="K13" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L13" s="4">
         <v>0</v>
@@ -7148,7 +7148,7 @@
         <v>703</v>
       </c>
       <c r="K14" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
@@ -7206,7 +7206,7 @@
         <v>706</v>
       </c>
       <c r="K15" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>709</v>
       </c>
       <c r="K16" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L16" s="4">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>712</v>
       </c>
       <c r="K17" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L17" s="4">
         <v>0</v>
@@ -7374,7 +7374,7 @@
         <v>713</v>
       </c>
       <c r="K18" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>714</v>
       </c>
       <c r="K19" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L19" s="4">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>715</v>
       </c>
       <c r="K20" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L20" s="4">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>717</v>
       </c>
       <c r="K21" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
@@ -7594,7 +7594,7 @@
         <v>718</v>
       </c>
       <c r="K22" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L22" s="4">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>719</v>
       </c>
       <c r="K23" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L23" s="4">
         <v>0</v>
@@ -7704,7 +7704,7 @@
         <v>720</v>
       </c>
       <c r="K24" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L24" s="4">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>721</v>
       </c>
       <c r="K25" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L25" s="4">
         <v>0</v>
@@ -7814,7 +7814,7 @@
         <v>722</v>
       </c>
       <c r="K26" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L26" s="4">
         <v>0</v>
@@ -7869,7 +7869,7 @@
         <v>723</v>
       </c>
       <c r="K27" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L27" s="4">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         <v>724</v>
       </c>
       <c r="K28" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L28" s="4">
         <v>0</v>
@@ -7979,7 +7979,7 @@
         <v>725</v>
       </c>
       <c r="K29" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L29" s="4">
         <v>0</v>
@@ -8034,7 +8034,7 @@
         <v>729</v>
       </c>
       <c r="K30" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>730</v>
       </c>
       <c r="K31" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L31" s="4">
         <v>0</v>
@@ -8144,7 +8144,7 @@
         <v>731</v>
       </c>
       <c r="K32" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L32" s="4">
         <v>0</v>
@@ -8199,7 +8199,7 @@
         <v>732</v>
       </c>
       <c r="K33" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L33" s="4">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>733</v>
       </c>
       <c r="K34" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L34" s="4">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>734</v>
       </c>
       <c r="K35" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L35" s="4">
         <v>0</v>
@@ -8364,7 +8364,7 @@
         <v>735</v>
       </c>
       <c r="K36" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L36" s="4">
         <v>0</v>
@@ -8419,7 +8419,7 @@
         <v>736</v>
       </c>
       <c r="K37" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L37" s="4">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>737</v>
       </c>
       <c r="K38" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L38" s="4">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>738</v>
       </c>
       <c r="K39" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L39" s="4">
         <v>0</v>
@@ -8584,7 +8584,7 @@
         <v>739</v>
       </c>
       <c r="K40" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L40" s="4">
         <v>0</v>
@@ -8639,7 +8639,7 @@
         <v>740</v>
       </c>
       <c r="K41" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L41" s="4">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>741</v>
       </c>
       <c r="K42" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L42" s="4">
         <v>0</v>
@@ -8749,7 +8749,7 @@
         <v>743</v>
       </c>
       <c r="K43" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L43" s="4">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>744</v>
       </c>
       <c r="K44" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L44" s="4">
         <v>0</v>
@@ -8859,7 +8859,7 @@
         <v>747</v>
       </c>
       <c r="K45" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L45" s="4">
         <v>0</v>
@@ -8914,7 +8914,7 @@
         <v>748</v>
       </c>
       <c r="K46" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L46" s="4">
         <v>0</v>
@@ -8969,7 +8969,7 @@
         <v>751</v>
       </c>
       <c r="K47" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L47" s="4">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>755</v>
       </c>
       <c r="K48" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L48" s="4">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>756</v>
       </c>
       <c r="K49" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L49" s="4">
         <v>0</v>
@@ -9134,7 +9134,7 @@
         <v>757</v>
       </c>
       <c r="K50" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L50" s="4">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>759</v>
       </c>
       <c r="K51" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L51" s="4">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>760</v>
       </c>
       <c r="K52" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L52" s="4">
         <v>0</v>
@@ -9299,7 +9299,7 @@
         <v>764</v>
       </c>
       <c r="K53" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L53" s="4">
         <v>0</v>
@@ -9354,7 +9354,7 @@
         <v>765</v>
       </c>
       <c r="K54" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L54" s="4">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>766</v>
       </c>
       <c r="K55" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L55" s="4">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>767</v>
       </c>
       <c r="K56" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L56" s="4">
         <v>0</v>
@@ -9519,7 +9519,7 @@
         <v>768</v>
       </c>
       <c r="K57" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L57" s="4">
         <v>0</v>
@@ -9574,7 +9574,7 @@
         <v>772</v>
       </c>
       <c r="K58" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L58" s="4">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>773</v>
       </c>
       <c r="K59" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L59" s="4">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>774</v>
       </c>
       <c r="K60" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L60" s="4">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>775</v>
       </c>
       <c r="K61" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L61" s="4">
         <v>0</v>
@@ -9794,7 +9794,7 @@
         <v>776</v>
       </c>
       <c r="K62" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L62" s="4">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>777</v>
       </c>
       <c r="K63" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L63" s="4">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>778</v>
       </c>
       <c r="K64" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L64" s="4">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>779</v>
       </c>
       <c r="K65" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L65" s="4">
         <v>0</v>
@@ -10014,7 +10014,7 @@
         <v>780</v>
       </c>
       <c r="K66" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L66" s="4">
         <v>0</v>
@@ -10069,7 +10069,7 @@
         <v>781</v>
       </c>
       <c r="K67" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L67" s="4">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>785</v>
       </c>
       <c r="K68" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L68" s="4">
         <v>0</v>
@@ -10179,7 +10179,7 @@
         <v>787</v>
       </c>
       <c r="K69" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L69" s="4">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>788</v>
       </c>
       <c r="K70" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L70" s="4">
         <v>0</v>
@@ -10289,7 +10289,7 @@
         <v>789</v>
       </c>
       <c r="K71" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L71" s="4">
         <v>0</v>
@@ -10344,7 +10344,7 @@
         <v>790</v>
       </c>
       <c r="K72" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L72" s="4">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>791</v>
       </c>
       <c r="K73" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L73" s="4">
         <v>0</v>
@@ -10454,7 +10454,7 @@
         <v>792</v>
       </c>
       <c r="K74" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L74" s="4">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>793</v>
       </c>
       <c r="K75" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L75" s="4">
         <v>0</v>
@@ -10564,7 +10564,7 @@
         <v>794</v>
       </c>
       <c r="K76" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L76" s="4">
         <v>0</v>
@@ -10619,7 +10619,7 @@
         <v>795</v>
       </c>
       <c r="K77" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L77" s="4">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>796</v>
       </c>
       <c r="K78" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L78" s="4">
         <v>0</v>
@@ -10732,7 +10732,7 @@
         <v>797</v>
       </c>
       <c r="K79" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L79" s="4">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>800</v>
       </c>
       <c r="K80" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L80" s="4">
         <v>0</v>
@@ -10848,7 +10848,7 @@
         <v>803</v>
       </c>
       <c r="K81" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L81" s="4">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>806</v>
       </c>
       <c r="K82" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L82" s="4">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>809</v>
       </c>
       <c r="K83" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L83" s="4">
         <v>0</v>
@@ -11022,7 +11022,7 @@
         <v>812</v>
       </c>
       <c r="K84" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L84" s="4">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>816</v>
       </c>
       <c r="K85" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L85" s="4">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>820</v>
       </c>
       <c r="K86" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L86" s="4">
         <v>0</v>
@@ -11196,7 +11196,7 @@
         <v>824</v>
       </c>
       <c r="K87" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L87" s="4">
         <v>0</v>
@@ -11254,7 +11254,7 @@
         <v>828</v>
       </c>
       <c r="K88" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L88" s="4">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>832</v>
       </c>
       <c r="K89" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L89" s="4">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>836</v>
       </c>
       <c r="K90" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L90" s="4">
         <v>0</v>
@@ -11428,7 +11428,7 @@
         <v>840</v>
       </c>
       <c r="K91" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L91" s="4">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>844</v>
       </c>
       <c r="K92" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L92" s="4">
         <v>0</v>
@@ -11544,7 +11544,7 @@
         <v>848</v>
       </c>
       <c r="K93" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L93" s="4">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>852</v>
       </c>
       <c r="K94" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L94" s="4">
         <v>0</v>
@@ -11660,7 +11660,7 @@
         <v>855</v>
       </c>
       <c r="K95" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L95" s="4">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>858</v>
       </c>
       <c r="K96" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L96" s="4">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>861</v>
       </c>
       <c r="K97" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L97" s="4">
         <v>0</v>
@@ -11834,7 +11834,7 @@
         <v>864</v>
       </c>
       <c r="K98" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L98" s="4">
         <v>0</v>
@@ -11892,7 +11892,7 @@
         <v>867</v>
       </c>
       <c r="K99" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L99" s="4">
         <v>0</v>
@@ -11950,7 +11950,7 @@
         <v>870</v>
       </c>
       <c r="K100" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L100" s="4">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>872</v>
       </c>
       <c r="K101" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L101" s="4">
         <v>0</v>
@@ -12066,7 +12066,7 @@
         <v>875</v>
       </c>
       <c r="K102" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L102" s="4">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>876</v>
       </c>
       <c r="K103" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L103" s="4">
         <v>0</v>
@@ -12182,7 +12182,7 @@
         <v>877</v>
       </c>
       <c r="K104" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L104" s="4">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>878</v>
       </c>
       <c r="K105" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L105" s="4">
         <v>0</v>
@@ -12298,7 +12298,7 @@
         <v>880</v>
       </c>
       <c r="K106" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L106" s="4">
         <v>0</v>
@@ -12356,7 +12356,7 @@
         <v>882</v>
       </c>
       <c r="K107" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L107" s="4">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>885</v>
       </c>
       <c r="K108" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L108" s="4">
         <v>0</v>
@@ -12472,7 +12472,7 @@
         <v>886</v>
       </c>
       <c r="K109" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L109" s="4">
         <v>0</v>
@@ -12530,7 +12530,7 @@
         <v>890</v>
       </c>
       <c r="K110" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L110" s="4">
         <v>0</v>
@@ -12588,7 +12588,7 @@
         <v>892</v>
       </c>
       <c r="K111" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L111" s="4">
         <v>0</v>
@@ -12646,7 +12646,7 @@
         <v>893</v>
       </c>
       <c r="K112" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L112" s="4">
         <v>0</v>
@@ -12704,7 +12704,7 @@
         <v>894</v>
       </c>
       <c r="K113" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L113" s="4">
         <v>0</v>
@@ -12762,7 +12762,7 @@
         <v>895</v>
       </c>
       <c r="K114" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L114" s="4">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>899</v>
       </c>
       <c r="K115" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L115" s="4">
         <v>0</v>
@@ -12878,7 +12878,7 @@
         <v>903</v>
       </c>
       <c r="K116" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L116" s="4">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>907</v>
       </c>
       <c r="K117" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L117" s="4">
         <v>0</v>
@@ -12994,7 +12994,7 @@
         <v>911</v>
       </c>
       <c r="K118" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L118" s="4">
         <v>0</v>
@@ -13052,7 +13052,7 @@
         <v>915</v>
       </c>
       <c r="K119" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L119" s="4">
         <v>0</v>
@@ -13110,7 +13110,7 @@
         <v>918</v>
       </c>
       <c r="K120" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L120" s="4">
         <v>0</v>
@@ -13168,7 +13168,7 @@
         <v>921</v>
       </c>
       <c r="K121" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L121" s="4">
         <v>0</v>
@@ -13226,7 +13226,7 @@
         <v>924</v>
       </c>
       <c r="K122" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L122" s="4">
         <v>0</v>
@@ -13284,7 +13284,7 @@
         <v>927</v>
       </c>
       <c r="K123" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L123" s="4">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>930</v>
       </c>
       <c r="K124" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L124" s="4">
         <v>0</v>
@@ -13400,7 +13400,7 @@
         <v>933</v>
       </c>
       <c r="K125" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L125" s="4">
         <v>0</v>
@@ -13458,7 +13458,7 @@
         <v>936</v>
       </c>
       <c r="K126" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L126" s="4">
         <v>0</v>
@@ -13516,7 +13516,7 @@
         <v>939</v>
       </c>
       <c r="K127" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L127" s="4">
         <v>0</v>
@@ -13574,7 +13574,7 @@
         <v>942</v>
       </c>
       <c r="K128" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L128" s="4">
         <v>0</v>
@@ -13632,7 +13632,7 @@
         <v>946</v>
       </c>
       <c r="K129" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L129" s="4">
         <v>0</v>
@@ -13690,7 +13690,7 @@
         <v>949</v>
       </c>
       <c r="K130" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L130" s="4">
         <v>0</v>
@@ -13748,7 +13748,7 @@
         <v>952</v>
       </c>
       <c r="K131" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L131" s="4">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>955</v>
       </c>
       <c r="K132" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L132" s="4">
         <v>0</v>
@@ -13864,7 +13864,7 @@
         <v>958</v>
       </c>
       <c r="K133" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L133" s="4">
         <v>0</v>
@@ -13922,7 +13922,7 @@
         <v>961</v>
       </c>
       <c r="K134" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L134" s="4">
         <v>0</v>
@@ -13980,7 +13980,7 @@
         <v>964</v>
       </c>
       <c r="K135" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L135" s="4">
         <v>0</v>
@@ -14038,7 +14038,7 @@
         <v>967</v>
       </c>
       <c r="K136" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L136" s="4">
         <v>0</v>
@@ -14096,7 +14096,7 @@
         <v>970</v>
       </c>
       <c r="K137" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L137" s="4">
         <v>0</v>
@@ -14151,7 +14151,7 @@
         <v>973</v>
       </c>
       <c r="K138" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L138" s="4">
         <v>0</v>
@@ -14206,7 +14206,7 @@
         <v>974</v>
       </c>
       <c r="K139" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L139" s="4">
         <v>0</v>
@@ -14261,7 +14261,7 @@
         <v>975</v>
       </c>
       <c r="K140" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L140" s="4">
         <v>0</v>
@@ -14316,7 +14316,7 @@
         <v>978</v>
       </c>
       <c r="K141" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L141" s="4">
         <v>0</v>
@@ -14371,7 +14371,7 @@
         <v>979</v>
       </c>
       <c r="K142" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L142" s="4">
         <v>0</v>
@@ -14426,7 +14426,7 @@
         <v>980</v>
       </c>
       <c r="K143" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L143" s="4">
         <v>0</v>
@@ -14481,7 +14481,7 @@
         <v>981</v>
       </c>
       <c r="K144" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L144" s="4">
         <v>0</v>
@@ -14536,7 +14536,7 @@
         <v>982</v>
       </c>
       <c r="K145" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L145" s="4">
         <v>0</v>
@@ -14591,7 +14591,7 @@
         <v>986</v>
       </c>
       <c r="K146" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L146" s="4">
         <v>0</v>
@@ -14646,7 +14646,7 @@
         <v>987</v>
       </c>
       <c r="K147" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L147" s="4">
         <v>0</v>
@@ -14701,7 +14701,7 @@
         <v>988</v>
       </c>
       <c r="K148" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L148" s="4">
         <v>0</v>
@@ -14756,7 +14756,7 @@
         <v>989</v>
       </c>
       <c r="K149" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L149" s="4">
         <v>0</v>
@@ -14811,7 +14811,7 @@
         <v>990</v>
       </c>
       <c r="K150" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L150" s="4">
         <v>0</v>
@@ -14866,7 +14866,7 @@
         <v>991</v>
       </c>
       <c r="K151" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L151" s="4">
         <v>0</v>
@@ -14921,7 +14921,7 @@
         <v>992</v>
       </c>
       <c r="K152" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L152" s="4">
         <v>0</v>
@@ -14976,7 +14976,7 @@
         <v>993</v>
       </c>
       <c r="K153" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L153" s="4">
         <v>0</v>
@@ -15031,7 +15031,7 @@
         <v>994</v>
       </c>
       <c r="K154" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L154" s="4">
         <v>0</v>
@@ -15089,7 +15089,7 @@
         <v>995</v>
       </c>
       <c r="K155" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L155" s="4">
         <v>0</v>
@@ -15147,7 +15147,7 @@
         <v>998</v>
       </c>
       <c r="K156" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L156" s="4">
         <v>0</v>
@@ -15205,7 +15205,7 @@
         <v>1001</v>
       </c>
       <c r="K157" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L157" s="4">
         <v>0</v>
@@ -15263,7 +15263,7 @@
         <v>1004</v>
       </c>
       <c r="K158" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L158" s="4">
         <v>0</v>
@@ -15321,7 +15321,7 @@
         <v>1007</v>
       </c>
       <c r="K159" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L159" s="4">
         <v>0</v>
@@ -15379,7 +15379,7 @@
         <v>1010</v>
       </c>
       <c r="K160" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L160" s="4">
         <v>0</v>
@@ -15437,7 +15437,7 @@
         <v>1014</v>
       </c>
       <c r="K161" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L161" s="4">
         <v>0</v>
@@ -15495,7 +15495,7 @@
         <v>1018</v>
       </c>
       <c r="K162" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L162" s="4">
         <v>0</v>
@@ -15550,7 +15550,7 @@
         <v>1022</v>
       </c>
       <c r="K163" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L163" s="4">
         <v>0</v>
@@ -15605,7 +15605,7 @@
         <v>1026</v>
       </c>
       <c r="K164" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L164" s="4">
         <v>0</v>
@@ -15660,7 +15660,7 @@
         <v>1030</v>
       </c>
       <c r="K165" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L165" s="4">
         <v>0</v>
@@ -15715,7 +15715,7 @@
         <v>1034</v>
       </c>
       <c r="K166" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L166" s="4">
         <v>0</v>
@@ -15770,7 +15770,7 @@
         <v>1038</v>
       </c>
       <c r="K167" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L167" s="4">
         <v>0</v>
@@ -15828,7 +15828,7 @@
         <v>1042</v>
       </c>
       <c r="K168" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L168" s="4">
         <v>0</v>
@@ -15886,7 +15886,7 @@
         <v>1048</v>
       </c>
       <c r="K169" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L169" s="4">
         <v>0</v>
@@ -15944,7 +15944,7 @@
         <v>1054</v>
       </c>
       <c r="K170" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L170" s="4">
         <v>0</v>
@@ -16002,7 +16002,7 @@
         <v>1060</v>
       </c>
       <c r="K171" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L171" s="4">
         <v>0</v>
@@ -16060,7 +16060,7 @@
         <v>1066</v>
       </c>
       <c r="K172" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L172" s="4">
         <v>0</v>
@@ -16118,7 +16118,7 @@
         <v>1072</v>
       </c>
       <c r="K173" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L173" s="4">
         <v>0</v>
@@ -16176,7 +16176,7 @@
         <v>1075</v>
       </c>
       <c r="K174" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L174" s="4">
         <v>0</v>
@@ -16234,7 +16234,7 @@
         <v>1078</v>
       </c>
       <c r="K175" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L175" s="4">
         <v>0</v>
@@ -16292,7 +16292,7 @@
         <v>1081</v>
       </c>
       <c r="K176" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L176" s="4">
         <v>0</v>
@@ -16350,7 +16350,7 @@
         <v>1084</v>
       </c>
       <c r="K177" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L177" s="4">
         <v>0</v>
@@ -16405,7 +16405,7 @@
         <v>1087</v>
       </c>
       <c r="K178" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L178" s="4">
         <v>0</v>
@@ -16460,7 +16460,7 @@
         <v>1091</v>
       </c>
       <c r="K179" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L179" s="4">
         <v>0</v>
@@ -16515,7 +16515,7 @@
         <v>1095</v>
       </c>
       <c r="K180" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L180" s="4">
         <v>0</v>
@@ -16570,7 +16570,7 @@
         <v>1099</v>
       </c>
       <c r="K181" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L181" s="4">
         <v>0</v>
@@ -16625,7 +16625,7 @@
         <v>1103</v>
       </c>
       <c r="K182" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L182" s="4">
         <v>0</v>
@@ -16680,7 +16680,7 @@
         <v>1107</v>
       </c>
       <c r="K183" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L183" s="4">
         <v>0</v>
@@ -16735,7 +16735,7 @@
         <v>1110</v>
       </c>
       <c r="K184" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L184" s="4">
         <v>0</v>
@@ -16790,7 +16790,7 @@
         <v>1113</v>
       </c>
       <c r="K185" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L185" s="4">
         <v>0</v>
@@ -16848,7 +16848,7 @@
         <v>1116</v>
       </c>
       <c r="K186" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L186" s="4">
         <v>0</v>
@@ -16906,7 +16906,7 @@
         <v>1120</v>
       </c>
       <c r="K187" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L187" s="4">
         <v>0</v>
@@ -16964,7 +16964,7 @@
         <v>1124</v>
       </c>
       <c r="K188" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L188" s="4">
         <v>0</v>
@@ -17022,7 +17022,7 @@
         <v>1128</v>
       </c>
       <c r="K189" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L189" s="4">
         <v>0</v>
@@ -17080,7 +17080,7 @@
         <v>1132</v>
       </c>
       <c r="K190" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L190" s="4">
         <v>0</v>
@@ -17138,7 +17138,7 @@
         <v>1136</v>
       </c>
       <c r="K191" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L191" s="4">
         <v>0</v>
@@ -17196,7 +17196,7 @@
         <v>1139</v>
       </c>
       <c r="K192" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L192" s="4">
         <v>0</v>
@@ -17254,7 +17254,7 @@
         <v>1142</v>
       </c>
       <c r="K193" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L193" s="4">
         <v>0</v>
@@ -17312,7 +17312,7 @@
         <v>1145</v>
       </c>
       <c r="K194" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L194" s="4">
         <v>0</v>
@@ -17370,7 +17370,7 @@
         <v>1148</v>
       </c>
       <c r="K195" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="L195" s="4">
         <v>0</v>
@@ -17409,7 +17409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574354DD-9096-9941-BF44-4B331A926B06}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -17422,18 +17422,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
   </sheetData>
@@ -17494,7 +17494,7 @@
         <v>677</v>
       </c>
       <c r="F2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -17514,7 +17514,7 @@
         <v>678</v>
       </c>
       <c r="F3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -17534,7 +17534,7 @@
         <v>679</v>
       </c>
       <c r="F4" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -17554,7 +17554,7 @@
         <v>680</v>
       </c>
       <c r="F5" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -17574,7 +17574,7 @@
         <v>681</v>
       </c>
       <c r="F6" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -17594,7 +17594,7 @@
         <v>682</v>
       </c>
       <c r="F7" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -17614,7 +17614,7 @@
         <v>683</v>
       </c>
       <c r="F8" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -17634,7 +17634,7 @@
         <v>684</v>
       </c>
       <c r="F9" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -17654,7 +17654,7 @@
         <v>685</v>
       </c>
       <c r="F10" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -17674,7 +17674,7 @@
         <v>686</v>
       </c>
       <c r="F11" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -17694,7 +17694,7 @@
         <v>687</v>
       </c>
       <c r="F12" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -17714,7 +17714,7 @@
         <v>688</v>
       </c>
       <c r="F13" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -17734,7 +17734,7 @@
         <v>689</v>
       </c>
       <c r="F14" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -17754,7 +17754,7 @@
         <v>690</v>
       </c>
       <c r="F15" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -17774,7 +17774,7 @@
         <v>691</v>
       </c>
       <c r="F16" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -17794,7 +17794,7 @@
         <v>692</v>
       </c>
       <c r="F17" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -17814,7 +17814,7 @@
         <v>693</v>
       </c>
       <c r="F18" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -17834,7 +17834,7 @@
         <v>694</v>
       </c>
       <c r="F19" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -17854,7 +17854,7 @@
         <v>695</v>
       </c>
       <c r="F20" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -17874,7 +17874,7 @@
         <v>696</v>
       </c>
       <c r="F21" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -17894,7 +17894,7 @@
         <v>697</v>
       </c>
       <c r="F22" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -17914,7 +17914,7 @@
         <v>698</v>
       </c>
       <c r="F23" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -17934,7 +17934,7 @@
         <v>699</v>
       </c>
       <c r="F24" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -17954,7 +17954,7 @@
         <v>700</v>
       </c>
       <c r="F25" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -17974,7 +17974,7 @@
         <v>701</v>
       </c>
       <c r="F26" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -17994,7 +17994,7 @@
         <v>702</v>
       </c>
       <c r="F27" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -18014,7 +18014,7 @@
         <v>703</v>
       </c>
       <c r="F28" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -18034,7 +18034,7 @@
         <v>704</v>
       </c>
       <c r="F29" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -18054,7 +18054,7 @@
         <v>705</v>
       </c>
       <c r="F30" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -18074,7 +18074,7 @@
         <v>706</v>
       </c>
       <c r="F31" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -18094,7 +18094,7 @@
         <v>707</v>
       </c>
       <c r="F32" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -18114,7 +18114,7 @@
         <v>708</v>
       </c>
       <c r="F33" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -18134,7 +18134,7 @@
         <v>709</v>
       </c>
       <c r="F34" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -18154,7 +18154,7 @@
         <v>710</v>
       </c>
       <c r="F35" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -18174,7 +18174,7 @@
         <v>711</v>
       </c>
       <c r="F36" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -18194,7 +18194,7 @@
         <v>712</v>
       </c>
       <c r="F37" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -18214,7 +18214,7 @@
         <v>713</v>
       </c>
       <c r="F38" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -18234,7 +18234,7 @@
         <v>714</v>
       </c>
       <c r="F39" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -18254,7 +18254,7 @@
         <v>715</v>
       </c>
       <c r="F40" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -18274,7 +18274,7 @@
         <v>716</v>
       </c>
       <c r="F41" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -18294,7 +18294,7 @@
         <v>717</v>
       </c>
       <c r="F42" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -18314,7 +18314,7 @@
         <v>718</v>
       </c>
       <c r="F43" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -18334,7 +18334,7 @@
         <v>719</v>
       </c>
       <c r="F44" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -18354,7 +18354,7 @@
         <v>720</v>
       </c>
       <c r="F45" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -18374,7 +18374,7 @@
         <v>721</v>
       </c>
       <c r="F46" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -18394,7 +18394,7 @@
         <v>722</v>
       </c>
       <c r="F47" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -18414,7 +18414,7 @@
         <v>723</v>
       </c>
       <c r="F48" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -18434,7 +18434,7 @@
         <v>724</v>
       </c>
       <c r="F49" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -18454,7 +18454,7 @@
         <v>725</v>
       </c>
       <c r="F50" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -18474,7 +18474,7 @@
         <v>726</v>
       </c>
       <c r="F51" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -18494,7 +18494,7 @@
         <v>727</v>
       </c>
       <c r="F52" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -18514,7 +18514,7 @@
         <v>728</v>
       </c>
       <c r="F53" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -18534,7 +18534,7 @@
         <v>729</v>
       </c>
       <c r="F54" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -18554,7 +18554,7 @@
         <v>730</v>
       </c>
       <c r="F55" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -18574,7 +18574,7 @@
         <v>731</v>
       </c>
       <c r="F56" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -18594,7 +18594,7 @@
         <v>732</v>
       </c>
       <c r="F57" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -18614,7 +18614,7 @@
         <v>733</v>
       </c>
       <c r="F58" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -18634,7 +18634,7 @@
         <v>734</v>
       </c>
       <c r="F59" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -18654,7 +18654,7 @@
         <v>735</v>
       </c>
       <c r="F60" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -18674,7 +18674,7 @@
         <v>736</v>
       </c>
       <c r="F61" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -18694,7 +18694,7 @@
         <v>737</v>
       </c>
       <c r="F62" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -18714,7 +18714,7 @@
         <v>738</v>
       </c>
       <c r="F63" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -18734,7 +18734,7 @@
         <v>739</v>
       </c>
       <c r="F64" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -18754,7 +18754,7 @@
         <v>740</v>
       </c>
       <c r="F65" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -18774,7 +18774,7 @@
         <v>741</v>
       </c>
       <c r="F66" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -18794,7 +18794,7 @@
         <v>742</v>
       </c>
       <c r="F67" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -18814,7 +18814,7 @@
         <v>743</v>
       </c>
       <c r="F68" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -18834,7 +18834,7 @@
         <v>744</v>
       </c>
       <c r="F69" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -18854,7 +18854,7 @@
         <v>745</v>
       </c>
       <c r="F70" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -18874,7 +18874,7 @@
         <v>746</v>
       </c>
       <c r="F71" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -18894,7 +18894,7 @@
         <v>747</v>
       </c>
       <c r="F72" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -18914,7 +18914,7 @@
         <v>748</v>
       </c>
       <c r="F73" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -18934,7 +18934,7 @@
         <v>749</v>
       </c>
       <c r="F74" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -18954,7 +18954,7 @@
         <v>750</v>
       </c>
       <c r="F75" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -18974,7 +18974,7 @@
         <v>751</v>
       </c>
       <c r="F76" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -18994,7 +18994,7 @@
         <v>752</v>
       </c>
       <c r="F77" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -19014,7 +19014,7 @@
         <v>753</v>
       </c>
       <c r="F78" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -19034,7 +19034,7 @@
         <v>754</v>
       </c>
       <c r="F79" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -19054,7 +19054,7 @@
         <v>755</v>
       </c>
       <c r="F80" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -19074,7 +19074,7 @@
         <v>756</v>
       </c>
       <c r="F81" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -19094,7 +19094,7 @@
         <v>757</v>
       </c>
       <c r="F82" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -19114,7 +19114,7 @@
         <v>758</v>
       </c>
       <c r="F83" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -19134,7 +19134,7 @@
         <v>759</v>
       </c>
       <c r="F84" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -19154,7 +19154,7 @@
         <v>760</v>
       </c>
       <c r="F85" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -19174,7 +19174,7 @@
         <v>761</v>
       </c>
       <c r="F86" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -19194,7 +19194,7 @@
         <v>762</v>
       </c>
       <c r="F87" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -19214,7 +19214,7 @@
         <v>763</v>
       </c>
       <c r="F88" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -19234,7 +19234,7 @@
         <v>764</v>
       </c>
       <c r="F89" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -19254,7 +19254,7 @@
         <v>765</v>
       </c>
       <c r="F90" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -19274,7 +19274,7 @@
         <v>766</v>
       </c>
       <c r="F91" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -19294,7 +19294,7 @@
         <v>767</v>
       </c>
       <c r="F92" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -19314,7 +19314,7 @@
         <v>768</v>
       </c>
       <c r="F93" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -19334,7 +19334,7 @@
         <v>769</v>
       </c>
       <c r="F94" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -19354,7 +19354,7 @@
         <v>770</v>
       </c>
       <c r="F95" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -19374,7 +19374,7 @@
         <v>771</v>
       </c>
       <c r="F96" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -19394,7 +19394,7 @@
         <v>772</v>
       </c>
       <c r="F97" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -19414,7 +19414,7 @@
         <v>773</v>
       </c>
       <c r="F98" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -19434,7 +19434,7 @@
         <v>774</v>
       </c>
       <c r="F99" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -19454,7 +19454,7 @@
         <v>775</v>
       </c>
       <c r="F100" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -19474,7 +19474,7 @@
         <v>776</v>
       </c>
       <c r="F101" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -19494,7 +19494,7 @@
         <v>777</v>
       </c>
       <c r="F102" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -19514,7 +19514,7 @@
         <v>778</v>
       </c>
       <c r="F103" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -19534,7 +19534,7 @@
         <v>779</v>
       </c>
       <c r="F104" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -19554,7 +19554,7 @@
         <v>780</v>
       </c>
       <c r="F105" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -19574,7 +19574,7 @@
         <v>781</v>
       </c>
       <c r="F106" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -19594,7 +19594,7 @@
         <v>782</v>
       </c>
       <c r="F107" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -19614,7 +19614,7 @@
         <v>783</v>
       </c>
       <c r="F108" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -19634,7 +19634,7 @@
         <v>784</v>
       </c>
       <c r="F109" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -19654,7 +19654,7 @@
         <v>785</v>
       </c>
       <c r="F110" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -19674,7 +19674,7 @@
         <v>786</v>
       </c>
       <c r="F111" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -19694,7 +19694,7 @@
         <v>787</v>
       </c>
       <c r="F112" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -19714,7 +19714,7 @@
         <v>788</v>
       </c>
       <c r="F113" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -19734,7 +19734,7 @@
         <v>789</v>
       </c>
       <c r="F114" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -19754,7 +19754,7 @@
         <v>790</v>
       </c>
       <c r="F115" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -19774,7 +19774,7 @@
         <v>791</v>
       </c>
       <c r="F116" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -19794,7 +19794,7 @@
         <v>792</v>
       </c>
       <c r="F117" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -19814,7 +19814,7 @@
         <v>793</v>
       </c>
       <c r="F118" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -19834,7 +19834,7 @@
         <v>794</v>
       </c>
       <c r="F119" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -19854,7 +19854,7 @@
         <v>795</v>
       </c>
       <c r="F120" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -19874,7 +19874,7 @@
         <v>796</v>
       </c>
       <c r="F121" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -19894,7 +19894,7 @@
         <v>797</v>
       </c>
       <c r="F122" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -19914,7 +19914,7 @@
         <v>798</v>
       </c>
       <c r="F123" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -19934,7 +19934,7 @@
         <v>799</v>
       </c>
       <c r="F124" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -19954,7 +19954,7 @@
         <v>800</v>
       </c>
       <c r="F125" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -19974,7 +19974,7 @@
         <v>801</v>
       </c>
       <c r="F126" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -19994,7 +19994,7 @@
         <v>802</v>
       </c>
       <c r="F127" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -20014,7 +20014,7 @@
         <v>803</v>
       </c>
       <c r="F128" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -20034,7 +20034,7 @@
         <v>804</v>
       </c>
       <c r="F129" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -20054,7 +20054,7 @@
         <v>805</v>
       </c>
       <c r="F130" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -20074,7 +20074,7 @@
         <v>806</v>
       </c>
       <c r="F131" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -20094,7 +20094,7 @@
         <v>807</v>
       </c>
       <c r="F132" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -20114,7 +20114,7 @@
         <v>808</v>
       </c>
       <c r="F133" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -20134,7 +20134,7 @@
         <v>809</v>
       </c>
       <c r="F134" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -20154,7 +20154,7 @@
         <v>810</v>
       </c>
       <c r="F135" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -20174,7 +20174,7 @@
         <v>811</v>
       </c>
       <c r="F136" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -20194,7 +20194,7 @@
         <v>812</v>
       </c>
       <c r="F137" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -20214,7 +20214,7 @@
         <v>813</v>
       </c>
       <c r="F138" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -20234,7 +20234,7 @@
         <v>814</v>
       </c>
       <c r="F139" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -20254,7 +20254,7 @@
         <v>815</v>
       </c>
       <c r="F140" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -20274,7 +20274,7 @@
         <v>816</v>
       </c>
       <c r="F141" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -20294,7 +20294,7 @@
         <v>817</v>
       </c>
       <c r="F142" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -20314,7 +20314,7 @@
         <v>818</v>
       </c>
       <c r="F143" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -20334,7 +20334,7 @@
         <v>819</v>
       </c>
       <c r="F144" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -20354,7 +20354,7 @@
         <v>820</v>
       </c>
       <c r="F145" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -20374,7 +20374,7 @@
         <v>821</v>
       </c>
       <c r="F146" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -20394,7 +20394,7 @@
         <v>822</v>
       </c>
       <c r="F147" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -20414,7 +20414,7 @@
         <v>823</v>
       </c>
       <c r="F148" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -20434,7 +20434,7 @@
         <v>824</v>
       </c>
       <c r="F149" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -20454,7 +20454,7 @@
         <v>825</v>
       </c>
       <c r="F150" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -20474,7 +20474,7 @@
         <v>826</v>
       </c>
       <c r="F151" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -20494,7 +20494,7 @@
         <v>827</v>
       </c>
       <c r="F152" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -20514,7 +20514,7 @@
         <v>828</v>
       </c>
       <c r="F153" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -20534,7 +20534,7 @@
         <v>829</v>
       </c>
       <c r="F154" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -20554,7 +20554,7 @@
         <v>830</v>
       </c>
       <c r="F155" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -20574,7 +20574,7 @@
         <v>831</v>
       </c>
       <c r="F156" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -20594,7 +20594,7 @@
         <v>832</v>
       </c>
       <c r="F157" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -20614,7 +20614,7 @@
         <v>833</v>
       </c>
       <c r="F158" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -20634,7 +20634,7 @@
         <v>834</v>
       </c>
       <c r="F159" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -20654,7 +20654,7 @@
         <v>835</v>
       </c>
       <c r="F160" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -20674,7 +20674,7 @@
         <v>836</v>
       </c>
       <c r="F161" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -20694,7 +20694,7 @@
         <v>837</v>
       </c>
       <c r="F162" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -20714,7 +20714,7 @@
         <v>838</v>
       </c>
       <c r="F163" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -20734,7 +20734,7 @@
         <v>839</v>
       </c>
       <c r="F164" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -20754,7 +20754,7 @@
         <v>840</v>
       </c>
       <c r="F165" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -20774,7 +20774,7 @@
         <v>841</v>
       </c>
       <c r="F166" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -20794,7 +20794,7 @@
         <v>842</v>
       </c>
       <c r="F167" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -20814,7 +20814,7 @@
         <v>843</v>
       </c>
       <c r="F168" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -20834,7 +20834,7 @@
         <v>844</v>
       </c>
       <c r="F169" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -20854,7 +20854,7 @@
         <v>845</v>
       </c>
       <c r="F170" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -20874,7 +20874,7 @@
         <v>846</v>
       </c>
       <c r="F171" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -20894,7 +20894,7 @@
         <v>847</v>
       </c>
       <c r="F172" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -20914,7 +20914,7 @@
         <v>848</v>
       </c>
       <c r="F173" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -20934,7 +20934,7 @@
         <v>849</v>
       </c>
       <c r="F174" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -20954,7 +20954,7 @@
         <v>850</v>
       </c>
       <c r="F175" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -20974,7 +20974,7 @@
         <v>851</v>
       </c>
       <c r="F176" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -20994,7 +20994,7 @@
         <v>852</v>
       </c>
       <c r="F177" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -21014,7 +21014,7 @@
         <v>853</v>
       </c>
       <c r="F178" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -21034,7 +21034,7 @@
         <v>854</v>
       </c>
       <c r="F179" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -21054,7 +21054,7 @@
         <v>855</v>
       </c>
       <c r="F180" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -21074,7 +21074,7 @@
         <v>856</v>
       </c>
       <c r="F181" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -21094,7 +21094,7 @@
         <v>857</v>
       </c>
       <c r="F182" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -21114,7 +21114,7 @@
         <v>858</v>
       </c>
       <c r="F183" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -21134,7 +21134,7 @@
         <v>859</v>
       </c>
       <c r="F184" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -21154,7 +21154,7 @@
         <v>860</v>
       </c>
       <c r="F185" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -21174,7 +21174,7 @@
         <v>861</v>
       </c>
       <c r="F186" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -21194,7 +21194,7 @@
         <v>862</v>
       </c>
       <c r="F187" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -21214,7 +21214,7 @@
         <v>863</v>
       </c>
       <c r="F188" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -21234,7 +21234,7 @@
         <v>864</v>
       </c>
       <c r="F189" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -21254,7 +21254,7 @@
         <v>865</v>
       </c>
       <c r="F190" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -21274,7 +21274,7 @@
         <v>866</v>
       </c>
       <c r="F191" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -21294,7 +21294,7 @@
         <v>867</v>
       </c>
       <c r="F192" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -21314,7 +21314,7 @@
         <v>868</v>
       </c>
       <c r="F193" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -21334,7 +21334,7 @@
         <v>869</v>
       </c>
       <c r="F194" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -21354,7 +21354,7 @@
         <v>870</v>
       </c>
       <c r="F195" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -21374,7 +21374,7 @@
         <v>871</v>
       </c>
       <c r="F196" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -21394,7 +21394,7 @@
         <v>872</v>
       </c>
       <c r="F197" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -21414,7 +21414,7 @@
         <v>873</v>
       </c>
       <c r="F198" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -21434,7 +21434,7 @@
         <v>874</v>
       </c>
       <c r="F199" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -21454,7 +21454,7 @@
         <v>875</v>
       </c>
       <c r="F200" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -21474,7 +21474,7 @@
         <v>876</v>
       </c>
       <c r="F201" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -21494,7 +21494,7 @@
         <v>877</v>
       </c>
       <c r="F202" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -21514,7 +21514,7 @@
         <v>878</v>
       </c>
       <c r="F203" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -21534,7 +21534,7 @@
         <v>879</v>
       </c>
       <c r="F204" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -21554,7 +21554,7 @@
         <v>880</v>
       </c>
       <c r="F205" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -21574,7 +21574,7 @@
         <v>881</v>
       </c>
       <c r="F206" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -21594,7 +21594,7 @@
         <v>882</v>
       </c>
       <c r="F207" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -21614,7 +21614,7 @@
         <v>883</v>
       </c>
       <c r="F208" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -21634,7 +21634,7 @@
         <v>884</v>
       </c>
       <c r="F209" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -21654,7 +21654,7 @@
         <v>885</v>
       </c>
       <c r="F210" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -21674,7 +21674,7 @@
         <v>886</v>
       </c>
       <c r="F211" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -21694,7 +21694,7 @@
         <v>887</v>
       </c>
       <c r="F212" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -21714,7 +21714,7 @@
         <v>888</v>
       </c>
       <c r="F213" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -21734,7 +21734,7 @@
         <v>889</v>
       </c>
       <c r="F214" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -21754,7 +21754,7 @@
         <v>890</v>
       </c>
       <c r="F215" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -21774,7 +21774,7 @@
         <v>891</v>
       </c>
       <c r="F216" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -21794,7 +21794,7 @@
         <v>892</v>
       </c>
       <c r="F217" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -21814,7 +21814,7 @@
         <v>893</v>
       </c>
       <c r="F218" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -21834,7 +21834,7 @@
         <v>894</v>
       </c>
       <c r="F219" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -21854,7 +21854,7 @@
         <v>895</v>
       </c>
       <c r="F220" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -21874,7 +21874,7 @@
         <v>896</v>
       </c>
       <c r="F221" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -21894,7 +21894,7 @@
         <v>897</v>
       </c>
       <c r="F222" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -21914,7 +21914,7 @@
         <v>898</v>
       </c>
       <c r="F223" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -21934,7 +21934,7 @@
         <v>899</v>
       </c>
       <c r="F224" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -21954,7 +21954,7 @@
         <v>900</v>
       </c>
       <c r="F225" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -21974,7 +21974,7 @@
         <v>901</v>
       </c>
       <c r="F226" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -21994,7 +21994,7 @@
         <v>902</v>
       </c>
       <c r="F227" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -22014,7 +22014,7 @@
         <v>903</v>
       </c>
       <c r="F228" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -22034,7 +22034,7 @@
         <v>904</v>
       </c>
       <c r="F229" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -22054,7 +22054,7 @@
         <v>905</v>
       </c>
       <c r="F230" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -22074,7 +22074,7 @@
         <v>906</v>
       </c>
       <c r="F231" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -22094,7 +22094,7 @@
         <v>907</v>
       </c>
       <c r="F232" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -22114,7 +22114,7 @@
         <v>908</v>
       </c>
       <c r="F233" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -22134,7 +22134,7 @@
         <v>909</v>
       </c>
       <c r="F234" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -22154,7 +22154,7 @@
         <v>910</v>
       </c>
       <c r="F235" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -22174,7 +22174,7 @@
         <v>911</v>
       </c>
       <c r="F236" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -22194,7 +22194,7 @@
         <v>912</v>
       </c>
       <c r="F237" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -22214,7 +22214,7 @@
         <v>913</v>
       </c>
       <c r="F238" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -22234,7 +22234,7 @@
         <v>914</v>
       </c>
       <c r="F239" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -22254,7 +22254,7 @@
         <v>915</v>
       </c>
       <c r="F240" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -22274,7 +22274,7 @@
         <v>916</v>
       </c>
       <c r="F241" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -22294,7 +22294,7 @@
         <v>917</v>
       </c>
       <c r="F242" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -22314,7 +22314,7 @@
         <v>918</v>
       </c>
       <c r="F243" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -22334,7 +22334,7 @@
         <v>919</v>
       </c>
       <c r="F244" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -22354,7 +22354,7 @@
         <v>920</v>
       </c>
       <c r="F245" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -22374,7 +22374,7 @@
         <v>921</v>
       </c>
       <c r="F246" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -22394,7 +22394,7 @@
         <v>922</v>
       </c>
       <c r="F247" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -22414,7 +22414,7 @@
         <v>923</v>
       </c>
       <c r="F248" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -22434,7 +22434,7 @@
         <v>924</v>
       </c>
       <c r="F249" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -22454,7 +22454,7 @@
         <v>925</v>
       </c>
       <c r="F250" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -22474,7 +22474,7 @@
         <v>926</v>
       </c>
       <c r="F251" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -22494,7 +22494,7 @@
         <v>927</v>
       </c>
       <c r="F252" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -22514,7 +22514,7 @@
         <v>928</v>
       </c>
       <c r="F253" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -22534,7 +22534,7 @@
         <v>929</v>
       </c>
       <c r="F254" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -22554,7 +22554,7 @@
         <v>930</v>
       </c>
       <c r="F255" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -22574,7 +22574,7 @@
         <v>931</v>
       </c>
       <c r="F256" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -22594,7 +22594,7 @@
         <v>932</v>
       </c>
       <c r="F257" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -22614,7 +22614,7 @@
         <v>933</v>
       </c>
       <c r="F258" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -22634,7 +22634,7 @@
         <v>934</v>
       </c>
       <c r="F259" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -22654,7 +22654,7 @@
         <v>935</v>
       </c>
       <c r="F260" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -22674,7 +22674,7 @@
         <v>936</v>
       </c>
       <c r="F261" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -22694,7 +22694,7 @@
         <v>937</v>
       </c>
       <c r="F262" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -22714,7 +22714,7 @@
         <v>938</v>
       </c>
       <c r="F263" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -22734,7 +22734,7 @@
         <v>939</v>
       </c>
       <c r="F264" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -22754,7 +22754,7 @@
         <v>940</v>
       </c>
       <c r="F265" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -22774,7 +22774,7 @@
         <v>941</v>
       </c>
       <c r="F266" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -22794,7 +22794,7 @@
         <v>942</v>
       </c>
       <c r="F267" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -22814,7 +22814,7 @@
         <v>943</v>
       </c>
       <c r="F268" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -22834,7 +22834,7 @@
         <v>944</v>
       </c>
       <c r="F269" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -22854,7 +22854,7 @@
         <v>945</v>
       </c>
       <c r="F270" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -22874,7 +22874,7 @@
         <v>946</v>
       </c>
       <c r="F271" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -22894,7 +22894,7 @@
         <v>947</v>
       </c>
       <c r="F272" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -22914,7 +22914,7 @@
         <v>948</v>
       </c>
       <c r="F273" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -22934,7 +22934,7 @@
         <v>949</v>
       </c>
       <c r="F274" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -22954,7 +22954,7 @@
         <v>950</v>
       </c>
       <c r="F275" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -22974,7 +22974,7 @@
         <v>951</v>
       </c>
       <c r="F276" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -22994,7 +22994,7 @@
         <v>952</v>
       </c>
       <c r="F277" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -23014,7 +23014,7 @@
         <v>953</v>
       </c>
       <c r="F278" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -23034,7 +23034,7 @@
         <v>954</v>
       </c>
       <c r="F279" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -23054,7 +23054,7 @@
         <v>955</v>
       </c>
       <c r="F280" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -23074,7 +23074,7 @@
         <v>956</v>
       </c>
       <c r="F281" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -23094,7 +23094,7 @@
         <v>957</v>
       </c>
       <c r="F282" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -23114,7 +23114,7 @@
         <v>958</v>
       </c>
       <c r="F283" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -23134,7 +23134,7 @@
         <v>959</v>
       </c>
       <c r="F284" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -23154,7 +23154,7 @@
         <v>960</v>
       </c>
       <c r="F285" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -23174,7 +23174,7 @@
         <v>961</v>
       </c>
       <c r="F286" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -23194,7 +23194,7 @@
         <v>962</v>
       </c>
       <c r="F287" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -23214,7 +23214,7 @@
         <v>963</v>
       </c>
       <c r="F288" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -23234,7 +23234,7 @@
         <v>964</v>
       </c>
       <c r="F289" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -23254,7 +23254,7 @@
         <v>965</v>
       </c>
       <c r="F290" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -23274,7 +23274,7 @@
         <v>966</v>
       </c>
       <c r="F291" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -23294,7 +23294,7 @@
         <v>967</v>
       </c>
       <c r="F292" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -23314,7 +23314,7 @@
         <v>968</v>
       </c>
       <c r="F293" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -23334,7 +23334,7 @@
         <v>969</v>
       </c>
       <c r="F294" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -23354,7 +23354,7 @@
         <v>970</v>
       </c>
       <c r="F295" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -23374,7 +23374,7 @@
         <v>971</v>
       </c>
       <c r="F296" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -23394,7 +23394,7 @@
         <v>972</v>
       </c>
       <c r="F297" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -23414,7 +23414,7 @@
         <v>973</v>
       </c>
       <c r="F298" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -23434,7 +23434,7 @@
         <v>974</v>
       </c>
       <c r="F299" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -23454,7 +23454,7 @@
         <v>975</v>
       </c>
       <c r="F300" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -23474,7 +23474,7 @@
         <v>976</v>
       </c>
       <c r="F301" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
@@ -23494,7 +23494,7 @@
         <v>977</v>
       </c>
       <c r="F302" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -23514,7 +23514,7 @@
         <v>978</v>
       </c>
       <c r="F303" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -23534,7 +23534,7 @@
         <v>979</v>
       </c>
       <c r="F304" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -23554,7 +23554,7 @@
         <v>980</v>
       </c>
       <c r="F305" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
@@ -23574,7 +23574,7 @@
         <v>981</v>
       </c>
       <c r="F306" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -23594,7 +23594,7 @@
         <v>982</v>
       </c>
       <c r="F307" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
@@ -23614,7 +23614,7 @@
         <v>983</v>
       </c>
       <c r="F308" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
@@ -23634,7 +23634,7 @@
         <v>984</v>
       </c>
       <c r="F309" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -23654,7 +23654,7 @@
         <v>985</v>
       </c>
       <c r="F310" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
@@ -23674,7 +23674,7 @@
         <v>986</v>
       </c>
       <c r="F311" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -23694,7 +23694,7 @@
         <v>987</v>
       </c>
       <c r="F312" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
@@ -23714,7 +23714,7 @@
         <v>988</v>
       </c>
       <c r="F313" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
@@ -23734,7 +23734,7 @@
         <v>989</v>
       </c>
       <c r="F314" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -23754,7 +23754,7 @@
         <v>990</v>
       </c>
       <c r="F315" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -23774,7 +23774,7 @@
         <v>991</v>
       </c>
       <c r="F316" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
@@ -23794,7 +23794,7 @@
         <v>992</v>
       </c>
       <c r="F317" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -23814,7 +23814,7 @@
         <v>993</v>
       </c>
       <c r="F318" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
@@ -23834,7 +23834,7 @@
         <v>994</v>
       </c>
       <c r="F319" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
@@ -23854,7 +23854,7 @@
         <v>995</v>
       </c>
       <c r="F320" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -23874,7 +23874,7 @@
         <v>996</v>
       </c>
       <c r="F321" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
@@ -23894,7 +23894,7 @@
         <v>997</v>
       </c>
       <c r="F322" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -23914,7 +23914,7 @@
         <v>998</v>
       </c>
       <c r="F323" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -23934,7 +23934,7 @@
         <v>999</v>
       </c>
       <c r="F324" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -23954,7 +23954,7 @@
         <v>1000</v>
       </c>
       <c r="F325" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -23974,7 +23974,7 @@
         <v>1001</v>
       </c>
       <c r="F326" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -23994,7 +23994,7 @@
         <v>1002</v>
       </c>
       <c r="F327" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -24014,7 +24014,7 @@
         <v>1003</v>
       </c>
       <c r="F328" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -24034,7 +24034,7 @@
         <v>1004</v>
       </c>
       <c r="F329" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
@@ -24054,7 +24054,7 @@
         <v>1005</v>
       </c>
       <c r="F330" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -24074,7 +24074,7 @@
         <v>1006</v>
       </c>
       <c r="F331" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
@@ -24094,7 +24094,7 @@
         <v>1007</v>
       </c>
       <c r="F332" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
@@ -24114,7 +24114,7 @@
         <v>1008</v>
       </c>
       <c r="F333" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -24134,7 +24134,7 @@
         <v>1009</v>
       </c>
       <c r="F334" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
@@ -24154,7 +24154,7 @@
         <v>1010</v>
       </c>
       <c r="F335" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
@@ -24174,7 +24174,7 @@
         <v>1011</v>
       </c>
       <c r="F336" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -24194,7 +24194,7 @@
         <v>1012</v>
       </c>
       <c r="F337" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
@@ -24214,7 +24214,7 @@
         <v>1013</v>
       </c>
       <c r="F338" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
@@ -24234,7 +24234,7 @@
         <v>1014</v>
       </c>
       <c r="F339" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
@@ -24254,7 +24254,7 @@
         <v>1015</v>
       </c>
       <c r="F340" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
@@ -24274,7 +24274,7 @@
         <v>1016</v>
       </c>
       <c r="F341" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -24294,7 +24294,7 @@
         <v>1017</v>
       </c>
       <c r="F342" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
@@ -24314,7 +24314,7 @@
         <v>1018</v>
       </c>
       <c r="F343" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
@@ -24334,7 +24334,7 @@
         <v>1019</v>
       </c>
       <c r="F344" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
@@ -24354,7 +24354,7 @@
         <v>1020</v>
       </c>
       <c r="F345" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
@@ -24374,7 +24374,7 @@
         <v>1021</v>
       </c>
       <c r="F346" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
@@ -24394,7 +24394,7 @@
         <v>1022</v>
       </c>
       <c r="F347" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
@@ -24414,7 +24414,7 @@
         <v>1023</v>
       </c>
       <c r="F348" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
@@ -24434,7 +24434,7 @@
         <v>1024</v>
       </c>
       <c r="F349" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
@@ -24454,7 +24454,7 @@
         <v>1025</v>
       </c>
       <c r="F350" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
@@ -24474,7 +24474,7 @@
         <v>1026</v>
       </c>
       <c r="F351" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
@@ -24494,7 +24494,7 @@
         <v>1027</v>
       </c>
       <c r="F352" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
@@ -24514,7 +24514,7 @@
         <v>1028</v>
       </c>
       <c r="F353" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
@@ -24534,7 +24534,7 @@
         <v>1029</v>
       </c>
       <c r="F354" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
@@ -24554,7 +24554,7 @@
         <v>1030</v>
       </c>
       <c r="F355" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
@@ -24574,7 +24574,7 @@
         <v>1031</v>
       </c>
       <c r="F356" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
@@ -24594,7 +24594,7 @@
         <v>1032</v>
       </c>
       <c r="F357" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
@@ -24614,7 +24614,7 @@
         <v>1033</v>
       </c>
       <c r="F358" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
@@ -24634,7 +24634,7 @@
         <v>1034</v>
       </c>
       <c r="F359" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
@@ -24654,7 +24654,7 @@
         <v>1035</v>
       </c>
       <c r="F360" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
@@ -24674,7 +24674,7 @@
         <v>1036</v>
       </c>
       <c r="F361" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
@@ -24694,7 +24694,7 @@
         <v>1037</v>
       </c>
       <c r="F362" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
@@ -24714,7 +24714,7 @@
         <v>1038</v>
       </c>
       <c r="F363" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
@@ -24734,7 +24734,7 @@
         <v>1039</v>
       </c>
       <c r="F364" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
@@ -24754,7 +24754,7 @@
         <v>1040</v>
       </c>
       <c r="F365" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
@@ -24774,7 +24774,7 @@
         <v>1041</v>
       </c>
       <c r="F366" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
@@ -24794,7 +24794,7 @@
         <v>1042</v>
       </c>
       <c r="F367" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
@@ -24814,7 +24814,7 @@
         <v>1043</v>
       </c>
       <c r="F368" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
@@ -24834,7 +24834,7 @@
         <v>1044</v>
       </c>
       <c r="F369" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
@@ -24854,7 +24854,7 @@
         <v>1045</v>
       </c>
       <c r="F370" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
@@ -24874,7 +24874,7 @@
         <v>1046</v>
       </c>
       <c r="F371" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
@@ -24894,7 +24894,7 @@
         <v>1047</v>
       </c>
       <c r="F372" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
@@ -24914,7 +24914,7 @@
         <v>1048</v>
       </c>
       <c r="F373" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
@@ -24934,7 +24934,7 @@
         <v>1049</v>
       </c>
       <c r="F374" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
@@ -24954,7 +24954,7 @@
         <v>1050</v>
       </c>
       <c r="F375" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
@@ -24974,7 +24974,7 @@
         <v>1051</v>
       </c>
       <c r="F376" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
@@ -24994,7 +24994,7 @@
         <v>1052</v>
       </c>
       <c r="F377" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
@@ -25014,7 +25014,7 @@
         <v>1053</v>
       </c>
       <c r="F378" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
@@ -25034,7 +25034,7 @@
         <v>1054</v>
       </c>
       <c r="F379" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
@@ -25054,7 +25054,7 @@
         <v>1055</v>
       </c>
       <c r="F380" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
@@ -25074,7 +25074,7 @@
         <v>1056</v>
       </c>
       <c r="F381" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
@@ -25094,7 +25094,7 @@
         <v>1057</v>
       </c>
       <c r="F382" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
@@ -25114,7 +25114,7 @@
         <v>1058</v>
       </c>
       <c r="F383" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
@@ -25134,7 +25134,7 @@
         <v>1059</v>
       </c>
       <c r="F384" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
@@ -25154,7 +25154,7 @@
         <v>1060</v>
       </c>
       <c r="F385" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
@@ -25174,7 +25174,7 @@
         <v>1061</v>
       </c>
       <c r="F386" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
@@ -25194,7 +25194,7 @@
         <v>1062</v>
       </c>
       <c r="F387" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
@@ -25214,7 +25214,7 @@
         <v>1063</v>
       </c>
       <c r="F388" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
@@ -25234,7 +25234,7 @@
         <v>1064</v>
       </c>
       <c r="F389" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
@@ -25254,7 +25254,7 @@
         <v>1065</v>
       </c>
       <c r="F390" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
@@ -25274,7 +25274,7 @@
         <v>1066</v>
       </c>
       <c r="F391" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
@@ -25294,7 +25294,7 @@
         <v>1067</v>
       </c>
       <c r="F392" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
@@ -25314,7 +25314,7 @@
         <v>1068</v>
       </c>
       <c r="F393" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
@@ -25334,7 +25334,7 @@
         <v>1069</v>
       </c>
       <c r="F394" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
@@ -25354,7 +25354,7 @@
         <v>1070</v>
       </c>
       <c r="F395" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
@@ -25374,7 +25374,7 @@
         <v>1071</v>
       </c>
       <c r="F396" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
@@ -25394,7 +25394,7 @@
         <v>1072</v>
       </c>
       <c r="F397" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
@@ -25414,7 +25414,7 @@
         <v>1073</v>
       </c>
       <c r="F398" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
@@ -25434,7 +25434,7 @@
         <v>1074</v>
       </c>
       <c r="F399" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
@@ -25454,7 +25454,7 @@
         <v>1075</v>
       </c>
       <c r="F400" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
@@ -25474,7 +25474,7 @@
         <v>1076</v>
       </c>
       <c r="F401" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
@@ -25494,7 +25494,7 @@
         <v>1077</v>
       </c>
       <c r="F402" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
@@ -25514,7 +25514,7 @@
         <v>1078</v>
       </c>
       <c r="F403" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
@@ -25534,7 +25534,7 @@
         <v>1079</v>
       </c>
       <c r="F404" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
@@ -25554,7 +25554,7 @@
         <v>1080</v>
       </c>
       <c r="F405" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
@@ -25574,7 +25574,7 @@
         <v>1081</v>
       </c>
       <c r="F406" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
@@ -25594,7 +25594,7 @@
         <v>1082</v>
       </c>
       <c r="F407" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
@@ -25614,7 +25614,7 @@
         <v>1083</v>
       </c>
       <c r="F408" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
@@ -25634,7 +25634,7 @@
         <v>1084</v>
       </c>
       <c r="F409" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
@@ -25654,7 +25654,7 @@
         <v>1085</v>
       </c>
       <c r="F410" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
@@ -25674,7 +25674,7 @@
         <v>1086</v>
       </c>
       <c r="F411" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
@@ -25694,7 +25694,7 @@
         <v>1087</v>
       </c>
       <c r="F412" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
@@ -25714,7 +25714,7 @@
         <v>1088</v>
       </c>
       <c r="F413" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
@@ -25734,7 +25734,7 @@
         <v>1089</v>
       </c>
       <c r="F414" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
@@ -25754,7 +25754,7 @@
         <v>1090</v>
       </c>
       <c r="F415" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
@@ -25774,7 +25774,7 @@
         <v>1091</v>
       </c>
       <c r="F416" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
@@ -25794,7 +25794,7 @@
         <v>1092</v>
       </c>
       <c r="F417" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
@@ -25814,7 +25814,7 @@
         <v>1093</v>
       </c>
       <c r="F418" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
@@ -25834,7 +25834,7 @@
         <v>1094</v>
       </c>
       <c r="F419" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
@@ -25854,7 +25854,7 @@
         <v>1095</v>
       </c>
       <c r="F420" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
@@ -25874,7 +25874,7 @@
         <v>1096</v>
       </c>
       <c r="F421" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
@@ -25894,7 +25894,7 @@
         <v>1097</v>
       </c>
       <c r="F422" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
@@ -25914,7 +25914,7 @@
         <v>1098</v>
       </c>
       <c r="F423" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
@@ -25934,7 +25934,7 @@
         <v>1099</v>
       </c>
       <c r="F424" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
@@ -25954,7 +25954,7 @@
         <v>1100</v>
       </c>
       <c r="F425" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
@@ -25974,7 +25974,7 @@
         <v>1101</v>
       </c>
       <c r="F426" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
@@ -25994,7 +25994,7 @@
         <v>1102</v>
       </c>
       <c r="F427" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
@@ -26014,7 +26014,7 @@
         <v>1103</v>
       </c>
       <c r="F428" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
@@ -26034,7 +26034,7 @@
         <v>1104</v>
       </c>
       <c r="F429" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
@@ -26054,7 +26054,7 @@
         <v>1105</v>
       </c>
       <c r="F430" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
@@ -26074,7 +26074,7 @@
         <v>1106</v>
       </c>
       <c r="F431" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
@@ -26094,7 +26094,7 @@
         <v>1107</v>
       </c>
       <c r="F432" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
@@ -26114,7 +26114,7 @@
         <v>1108</v>
       </c>
       <c r="F433" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
@@ -26134,7 +26134,7 @@
         <v>1109</v>
       </c>
       <c r="F434" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
@@ -26154,7 +26154,7 @@
         <v>1110</v>
       </c>
       <c r="F435" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
@@ -26174,7 +26174,7 @@
         <v>1111</v>
       </c>
       <c r="F436" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
@@ -26194,7 +26194,7 @@
         <v>1112</v>
       </c>
       <c r="F437" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
@@ -26214,7 +26214,7 @@
         <v>1113</v>
       </c>
       <c r="F438" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
@@ -26234,7 +26234,7 @@
         <v>1114</v>
       </c>
       <c r="F439" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
@@ -26254,7 +26254,7 @@
         <v>1115</v>
       </c>
       <c r="F440" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
@@ -26274,7 +26274,7 @@
         <v>1116</v>
       </c>
       <c r="F441" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
@@ -26294,7 +26294,7 @@
         <v>1117</v>
       </c>
       <c r="F442" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
@@ -26314,7 +26314,7 @@
         <v>1118</v>
       </c>
       <c r="F443" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
@@ -26334,7 +26334,7 @@
         <v>1119</v>
       </c>
       <c r="F444" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
@@ -26354,7 +26354,7 @@
         <v>1120</v>
       </c>
       <c r="F445" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
@@ -26374,7 +26374,7 @@
         <v>1121</v>
       </c>
       <c r="F446" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
@@ -26394,7 +26394,7 @@
         <v>1122</v>
       </c>
       <c r="F447" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
@@ -26414,7 +26414,7 @@
         <v>1123</v>
       </c>
       <c r="F448" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
@@ -26434,7 +26434,7 @@
         <v>1124</v>
       </c>
       <c r="F449" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
@@ -26454,7 +26454,7 @@
         <v>1125</v>
       </c>
       <c r="F450" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
@@ -26474,7 +26474,7 @@
         <v>1126</v>
       </c>
       <c r="F451" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
@@ -26494,7 +26494,7 @@
         <v>1127</v>
       </c>
       <c r="F452" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
@@ -26514,7 +26514,7 @@
         <v>1128</v>
       </c>
       <c r="F453" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
@@ -26534,7 +26534,7 @@
         <v>1129</v>
       </c>
       <c r="F454" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
@@ -26554,7 +26554,7 @@
         <v>1130</v>
       </c>
       <c r="F455" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
@@ -26574,7 +26574,7 @@
         <v>1131</v>
       </c>
       <c r="F456" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
@@ -26594,7 +26594,7 @@
         <v>1132</v>
       </c>
       <c r="F457" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
@@ -26614,7 +26614,7 @@
         <v>1133</v>
       </c>
       <c r="F458" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
@@ -26634,7 +26634,7 @@
         <v>1134</v>
       </c>
       <c r="F459" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
@@ -26654,7 +26654,7 @@
         <v>1135</v>
       </c>
       <c r="F460" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
@@ -26674,7 +26674,7 @@
         <v>1136</v>
       </c>
       <c r="F461" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
@@ -26694,7 +26694,7 @@
         <v>1137</v>
       </c>
       <c r="F462" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.2">
@@ -26714,7 +26714,7 @@
         <v>1138</v>
       </c>
       <c r="F463" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
@@ -26734,7 +26734,7 @@
         <v>1139</v>
       </c>
       <c r="F464" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.2">
@@ -26754,7 +26754,7 @@
         <v>1140</v>
       </c>
       <c r="F465" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
@@ -26774,7 +26774,7 @@
         <v>1141</v>
       </c>
       <c r="F466" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
@@ -26794,7 +26794,7 @@
         <v>1142</v>
       </c>
       <c r="F467" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
@@ -26814,7 +26814,7 @@
         <v>1143</v>
       </c>
       <c r="F468" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
@@ -26834,7 +26834,7 @@
         <v>1144</v>
       </c>
       <c r="F469" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.2">
@@ -26854,7 +26854,7 @@
         <v>1145</v>
       </c>
       <c r="F470" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
@@ -26874,7 +26874,7 @@
         <v>1146</v>
       </c>
       <c r="F471" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.2">
@@ -26894,7 +26894,7 @@
         <v>1147</v>
       </c>
       <c r="F472" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
@@ -26914,7 +26914,7 @@
         <v>1148</v>
       </c>
       <c r="F473" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
@@ -26934,7 +26934,7 @@
         <v>1149</v>
       </c>
       <c r="F474" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
@@ -26954,7 +26954,7 @@
         <v>676</v>
       </c>
       <c r="F475" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
@@ -27060,7 +27060,7 @@
         <v>525</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="J2" s="6">
         <v>5</v>
@@ -27104,7 +27104,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="J3" s="6">
         <v>5</v>
@@ -27148,7 +27148,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="J4" s="6">
         <v>2</v>
@@ -27192,7 +27192,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="J5" s="6">
         <v>5</v>
@@ -27236,7 +27236,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="J6" s="6">
         <v>5</v>
@@ -27280,7 +27280,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="J7" s="6">
         <v>4</v>
@@ -27324,7 +27324,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="J8" s="6">
         <v>3</v>
@@ -27368,7 +27368,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="J9" s="6">
         <v>4</v>
@@ -27412,7 +27412,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="J10" s="6">
         <v>2</v>
@@ -27456,7 +27456,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="J11" s="6">
         <v>3</v>
@@ -27500,7 +27500,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="J12" s="6">
         <v>5</v>
@@ -27544,7 +27544,7 @@
         <v>33</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="J13" s="6">
         <v>2</v>
@@ -27588,7 +27588,7 @@
         <v>469</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="J14" s="6">
         <v>5</v>
@@ -27632,7 +27632,7 @@
         <v>472</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="J15" s="6">
         <v>4</v>
@@ -27676,7 +27676,7 @@
         <v>475</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="J16" s="6">
         <v>5</v>
@@ -27720,7 +27720,7 @@
         <v>478</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="J17" s="6">
         <v>5</v>
@@ -27764,7 +27764,7 @@
         <v>481</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="J18" s="6">
         <v>2</v>
@@ -27808,7 +27808,7 @@
         <v>484</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="J19" s="6">
         <v>2</v>
@@ -27852,7 +27852,7 @@
         <v>487</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="J20" s="6">
         <v>4</v>
@@ -27896,7 +27896,7 @@
         <v>490</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J21" s="6">
         <v>2</v>
@@ -27940,7 +27940,7 @@
         <v>493</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="J22" s="6">
         <v>0</v>
@@ -28924,7 +28924,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -28935,7 +28935,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -28946,7 +28946,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -28957,7 +28957,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -28968,7 +28968,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -28979,7 +28979,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -28990,7 +28990,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -29001,7 +29001,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -29012,7 +29012,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -29023,7 +29023,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D11" t="s">
         <v>536</v>
@@ -29037,7 +29037,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D12" t="s">
         <v>537</v>
@@ -29051,7 +29051,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D13" t="s">
         <v>538</v>
@@ -29065,7 +29065,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D14" t="s">
         <v>539</v>
@@ -29079,7 +29079,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D15" t="s">
         <v>540</v>
@@ -29093,7 +29093,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D16" t="s">
         <v>535</v>
@@ -29107,7 +29107,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D17" t="s">
         <v>534</v>
@@ -29121,7 +29121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D18" t="s">
         <v>533</v>
@@ -29135,7 +29135,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="D19" t="s">
         <v>541</v>
@@ -29149,7 +29149,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="D20" t="s">
         <v>542</v>
@@ -29163,7 +29163,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D21" t="s">
         <v>548</v>
@@ -29177,7 +29177,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D22" t="s">
         <v>549</v>
@@ -29191,7 +29191,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="D23" t="s">
         <v>550</v>
@@ -29205,7 +29205,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D24" t="s">
         <v>557</v>
@@ -29219,7 +29219,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D25" t="s">
         <v>558</v>
@@ -29239,7 +29239,7 @@
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29259,31 +29259,31 @@
         <v>653</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>655</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>1319</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1341</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29291,7 +29291,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>645</v>
@@ -29300,22 +29300,22 @@
         <v>646</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29323,31 +29323,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>1328</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29358,28 +29358,28 @@
         <v>644</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29390,28 +29390,28 @@
         <v>644</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>647</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29422,28 +29422,28 @@
         <v>644</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29454,28 +29454,28 @@
         <v>644</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29486,28 +29486,28 @@
         <v>1192</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29518,28 +29518,28 @@
         <v>1192</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29550,28 +29550,28 @@
         <v>1192</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29579,31 +29579,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29611,31 +29611,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1350</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1352</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29643,31 +29643,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>650</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29675,31 +29675,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29710,28 +29710,28 @@
         <v>1191</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29742,28 +29742,28 @@
         <v>1191</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29774,28 +29774,28 @@
         <v>1191</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29812,22 +29812,22 @@
         <v>646</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29838,28 +29838,28 @@
         <v>1191</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29876,22 +29876,22 @@
         <v>646</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29902,28 +29902,28 @@
         <v>1191</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29931,31 +29931,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29963,31 +29963,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -29995,31 +29995,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -30027,31 +30027,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -30062,28 +30062,28 @@
         <v>1193</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -30094,28 +30094,28 @@
         <v>1193</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -30126,28 +30126,28 @@
         <v>1193</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -30158,28 +30158,28 @@
         <v>1193</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>648</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -30190,28 +30190,28 @@
         <v>1193</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>646</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
   </sheetData>
@@ -30224,13 +30224,13 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AG112"/>
+  <dimension ref="A1:AG113"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG109" sqref="AG109"/>
+      <selection pane="bottomRight" activeCell="AG114" sqref="AG114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30248,18 +30248,18 @@
   <sheetData>
     <row r="1" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="25" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="G1" s="24">
         <f>SUM($G$3:$G$1025)</f>
-        <v>30.400000000000013</v>
+        <v>30.500000000000014</v>
       </c>
       <c r="AF1" s="17" t="s">
         <v>1167</v>
       </c>
       <c r="AG1" s="18" cm="1">
         <f t="array" ref="AG1">SUM($G$3:$G$1025*$AG$3:$AG$1025)/G1</f>
-        <v>0.89309210526315796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="14" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -31874,7 +31874,7 @@
         <v>1158</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="G54" s="16">
         <v>0.1</v>
@@ -31940,7 +31940,7 @@
         <v>1158</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="G56" s="16">
         <v>0.1</v>
@@ -32350,7 +32350,7 @@
     </row>
     <row r="70" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
-        <f t="shared" ref="A70:A112" si="1">IF(B70=1,A69+1,A69)</f>
+        <f t="shared" ref="A70:A113" si="1">IF(B70=1,A69+1,A69)</f>
         <v>7</v>
       </c>
       <c r="B70" s="13">
@@ -33143,10 +33143,10 @@
         <v>1164</v>
       </c>
       <c r="AD96" s="13" t="s">
-        <v>1283</v>
+        <v>1164</v>
       </c>
       <c r="AG96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -33158,22 +33158,22 @@
         <v>1</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>1275</v>
+        <v>1901</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>1275</v>
+        <v>1901</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>1275</v>
+        <v>1901</v>
       </c>
       <c r="G97" s="16">
         <v>1</v>
       </c>
-      <c r="AE97" s="13" t="s">
-        <v>1283</v>
+      <c r="AD97" s="13" t="s">
+        <v>1164</v>
       </c>
       <c r="AG97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -33185,7 +33185,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D98" s="13" t="s">
         <v>1202</v>
@@ -33194,7 +33194,7 @@
         <v>1157</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G98" s="16">
         <v>0.5</v>
@@ -33218,7 +33218,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D99" s="13" t="s">
         <v>1202</v>
@@ -33227,7 +33227,7 @@
         <v>1157</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G99" s="16">
         <v>0.5</v>
@@ -33251,7 +33251,7 @@
         <v>3</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>1202</v>
@@ -33260,7 +33260,7 @@
         <v>1157</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G100" s="16">
         <v>0.25</v>
@@ -33281,7 +33281,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>1202</v>
@@ -33290,7 +33290,7 @@
         <v>1157</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G101" s="16">
         <v>0.1</v>
@@ -33311,7 +33311,7 @@
         <v>5</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>1202</v>
@@ -33320,7 +33320,7 @@
         <v>1158</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G102" s="16">
         <v>0.1</v>
@@ -33341,7 +33341,7 @@
         <v>6</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>1202</v>
@@ -33350,7 +33350,7 @@
         <v>1157</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G103" s="16">
         <v>1</v>
@@ -33374,7 +33374,7 @@
         <v>7</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>1202</v>
@@ -33383,7 +33383,7 @@
         <v>1157</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="G104" s="16">
         <v>1</v>
@@ -33407,7 +33407,7 @@
         <v>8</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>1202</v>
@@ -33416,7 +33416,7 @@
         <v>1157</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="G105" s="16">
         <v>0.1</v>
@@ -33440,7 +33440,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>1207</v>
@@ -33449,7 +33449,7 @@
         <v>1208</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="G106" s="16">
         <v>0.1</v>
@@ -33473,7 +33473,7 @@
         <v>10</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D107" s="13" t="s">
         <v>1202</v>
@@ -33482,7 +33482,7 @@
         <v>1157</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="G107" s="16">
         <v>0.25</v>
@@ -33506,7 +33506,7 @@
         <v>11</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>1202</v>
@@ -33515,7 +33515,7 @@
         <v>1157</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="G108" s="16">
         <v>0.1</v>
@@ -33539,7 +33539,7 @@
         <v>12</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>1207</v>
@@ -33548,7 +33548,7 @@
         <v>1274</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="G109" s="16">
         <v>0.25</v>
@@ -33569,7 +33569,7 @@
         <v>13</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>1207</v>
@@ -33578,7 +33578,7 @@
         <v>1271</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G110" s="16">
         <v>1</v>
@@ -33602,7 +33602,7 @@
         <v>14</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D111" s="13" t="s">
         <v>1207</v>
@@ -33611,7 +33611,7 @@
         <v>1157</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="G111" s="16">
         <v>1</v>
@@ -33632,25 +33632,55 @@
         <v>15</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>1202</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="G112" s="16">
         <v>0.25</v>
       </c>
       <c r="AD112" s="13" t="s">
-        <v>1283</v>
+        <v>1164</v>
       </c>
       <c r="AG112" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B113" s="13">
+        <v>16</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>1900</v>
+      </c>
+      <c r="G113" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="AE113" s="13" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AG113" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/Project-Controller.xlsx
+++ b/src/data/Project-Controller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bes/cc18/Project/Swapy02/web/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC02F2-2D65-1942-A826-633DF50472A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E651D21D-B58B-834F-B4E3-B121AF79B542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="8" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
+    <workbookView xWindow="28800" yWindow="2100" windowWidth="23600" windowHeight="15900" activeTab="7" xr2:uid="{EBC99A39-14E9-FD43-AB84-C80166CFC4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Assets" sheetId="22" r:id="rId1"/>
@@ -5863,7 +5863,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5873,6 +5873,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5892,7 +5898,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5956,6 +5962,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -6353,7 +6361,7 @@
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S195" sqref="S2:S195"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17410,7 +17418,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28893,7 +28901,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29227,6 +29235,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -29237,9 +29246,9 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29290,7 +29299,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="30" t="s">
         <v>1327</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -29322,7 +29331,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="30" t="s">
         <v>1327</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -29354,7 +29363,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="30" t="s">
         <v>644</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -29386,7 +29395,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="30" t="s">
         <v>644</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -29418,7 +29427,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="30" t="s">
         <v>644</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -29450,7 +29459,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="30" t="s">
         <v>644</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -29482,7 +29491,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -29514,7 +29523,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -29546,7 +29555,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="30" t="s">
         <v>1192</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -29578,7 +29587,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="30" t="s">
         <v>1348</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -29610,7 +29619,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="30" t="s">
         <v>1348</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -29642,7 +29651,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="30" t="s">
         <v>1348</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -29674,7 +29683,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="30" t="s">
         <v>1348</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -29706,7 +29715,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="29" t="s">
         <v>1191</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -29738,7 +29747,7 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="29" t="s">
         <v>1191</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -29770,7 +29779,7 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="29" t="s">
         <v>1191</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -29802,7 +29811,7 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="29" t="s">
         <v>1191</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -29834,7 +29843,7 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="29" t="s">
         <v>1191</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -29866,7 +29875,7 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="29" t="s">
         <v>1191</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -29898,7 +29907,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="29" t="s">
         <v>1191</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -29930,7 +29939,7 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="29" t="s">
         <v>1372</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -29962,7 +29971,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="29" t="s">
         <v>1376</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -29994,7 +30003,7 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="29" t="s">
         <v>1376</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -30026,7 +30035,7 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="29" t="s">
         <v>1376</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -30058,7 +30067,7 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="29" t="s">
         <v>1193</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -30090,7 +30099,7 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="29" t="s">
         <v>1193</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -30122,7 +30131,7 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="29" t="s">
         <v>1193</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -30154,7 +30163,7 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="29" t="s">
         <v>1193</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -30186,7 +30195,7 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="29" t="s">
         <v>1193</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -30216,6 +30225,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -30226,11 +30236,11 @@
   </sheetPr>
   <dimension ref="A1:AG113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG114" sqref="AG114"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33708,5 +33718,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>